--- a/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="883">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -697,6 +697,12 @@
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo mantiene lo storico di tutti gli invii effettuati al gateway FSE e rende disponibile all’utente la possibilità di inviare nuovamente eventuali documenti andati in errore.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
   </si>
   <si>
@@ -2877,6 +2883,15 @@
 ▪per comporre i metadati contenente la RequestBody utilizzare il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-08T14:45:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefee7d63488a05a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.b23570567a83b6a6f630734d8c33d291f7ea5d4c4bcc71b6115ef232bdd591c9.425921125f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT1</t>
   </si>
   <si>
@@ -2899,12 +2914,30 @@
 Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-08T15:30:42Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6082c5a32bfabb39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34ecabd25264bb35abe51248dc34efacdfc4052cac251b66aacbf7ab6f10c673.21578414ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELIMINAZIONE_CDA2_RSA_CT1</t>
   </si>
   <si>
     <t xml:space="preserve">Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
 Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08T15:33:03Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcc86121ccc16911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7fa517229f83440f30aedaf59e842a736979a79a3a294e52ceb3e36f360a766.a094d42f5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">OSCURAMENTO_CDA2_RSA_CT1</t>
@@ -2916,6 +2949,15 @@
 ▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
 ▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
 Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08T15:51:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6732fbc917b6ae6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2a7bd8d32addb88252352829debb47fcbdb3b41d2013ffa194dacba622d1fa8.004e0e3fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT2_KO</t>
@@ -3895,6 +3937,15 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08T14:38:55Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0982db9d1be6b00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.b23570567a83b6a6f630734d8c33d291f7ea5d4c4bcc71b6115ef232bdd591c9.e2903330bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT0</t>
@@ -4158,7 +4209,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4166,7 +4218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,6 +4229,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -4298,7 +4356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4439,12 +4497,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4472,7 +4534,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4500,6 +4562,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -4767,8 +4837,8 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5841,7 +5911,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -6950,12 +7020,12 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C165" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E297" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
-      <selection pane="bottomRight" activeCell="K169" activeCellId="0" sqref="K169"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A297" activeCellId="0" sqref="A297"/>
+      <selection pane="bottomRight" activeCell="E299" activeCellId="0" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6963,12 +7033,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="6" style="1" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="36.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="31.86"/>
@@ -8214,7 +8284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="108.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="108.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>32</v>
       </c>
@@ -8494,7 +8564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="116.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="116.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>40</v>
       </c>
@@ -8780,7 +8850,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="324" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>48</v>
       </c>
@@ -8804,11 +8874,21 @@
         <v>133</v>
       </c>
       <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="L55" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="M55" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="O55" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>139</v>
+      </c>
       <c r="Q55" s="30"/>
       <c r="R55" s="31" t="s">
         <v>133</v>
@@ -8829,7 +8909,7 @@
         <v>81</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>132</v>
@@ -8865,7 +8945,7 @@
         <v>90</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>132</v>
@@ -8901,7 +8981,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>132</v>
@@ -8937,10 +9017,10 @@
         <v>49</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
@@ -8971,10 +9051,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -9005,10 +9085,10 @@
         <v>49</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
@@ -9039,10 +9119,10 @@
         <v>49</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -9073,10 +9153,10 @@
         <v>49</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
@@ -9107,10 +9187,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
@@ -9141,10 +9221,10 @@
         <v>49</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
@@ -9175,10 +9255,10 @@
         <v>49</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
@@ -9209,10 +9289,10 @@
         <v>49</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
@@ -9243,10 +9323,10 @@
         <v>49</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
@@ -9277,10 +9357,10 @@
         <v>49</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="29"/>
@@ -9311,10 +9391,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
@@ -9345,10 +9425,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="29"/>
@@ -9379,10 +9459,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="29"/>
@@ -9413,10 +9493,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
@@ -9447,10 +9527,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="29"/>
@@ -9481,10 +9561,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="29"/>
@@ -9515,10 +9595,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
@@ -9549,10 +9629,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
@@ -9583,10 +9663,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
@@ -9617,10 +9697,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
@@ -9651,10 +9731,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
@@ -9685,10 +9765,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
@@ -9719,10 +9799,10 @@
         <v>70</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="29"/>
@@ -9732,7 +9812,7 @@
         <v>73</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
@@ -9757,10 +9837,10 @@
         <v>70</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="29"/>
@@ -9770,7 +9850,7 @@
         <v>73</v>
       </c>
       <c r="K83" s="30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
@@ -9795,10 +9875,10 @@
         <v>70</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
@@ -9808,7 +9888,7 @@
         <v>73</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
@@ -9833,10 +9913,10 @@
         <v>70</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="29"/>
@@ -9846,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="K85" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
@@ -9871,10 +9951,10 @@
         <v>70</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="29"/>
@@ -9884,7 +9964,7 @@
         <v>73</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
@@ -9909,10 +9989,10 @@
         <v>70</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="29"/>
@@ -9922,7 +10002,7 @@
         <v>73</v>
       </c>
       <c r="K87" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L87" s="30"/>
       <c r="M87" s="30"/>
@@ -9947,10 +10027,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
@@ -9960,7 +10040,7 @@
         <v>73</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
@@ -9985,10 +10065,10 @@
         <v>70</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
@@ -9998,7 +10078,7 @@
         <v>73</v>
       </c>
       <c r="K89" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
@@ -10023,10 +10103,10 @@
         <v>70</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -10036,7 +10116,7 @@
         <v>73</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L90" s="30"/>
       <c r="M90" s="30"/>
@@ -10061,10 +10141,10 @@
         <v>70</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -10074,7 +10154,7 @@
         <v>73</v>
       </c>
       <c r="K91" s="30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L91" s="30"/>
       <c r="M91" s="30"/>
@@ -10099,10 +10179,10 @@
         <v>70</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -10111,8 +10191,8 @@
       <c r="J92" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K92" s="35" t="s">
-        <v>219</v>
+      <c r="K92" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="L92" s="30"/>
       <c r="M92" s="30"/>
@@ -10137,10 +10217,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -10150,7 +10230,7 @@
         <v>73</v>
       </c>
       <c r="K93" s="30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L93" s="30"/>
       <c r="M93" s="30"/>
@@ -10175,10 +10255,10 @@
         <v>70</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -10187,8 +10267,8 @@
       <c r="J94" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K94" s="35" t="s">
-        <v>225</v>
+      <c r="K94" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
@@ -10213,10 +10293,10 @@
         <v>70</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -10225,8 +10305,8 @@
       <c r="J95" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K95" s="35" t="s">
-        <v>228</v>
+      <c r="K95" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="L95" s="30"/>
       <c r="M95" s="30"/>
@@ -10251,10 +10331,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -10263,8 +10343,8 @@
       <c r="J96" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K96" s="35" t="s">
-        <v>228</v>
+      <c r="K96" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -10289,10 +10369,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -10301,8 +10381,8 @@
       <c r="J97" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K97" s="35" t="s">
-        <v>228</v>
+      <c r="K97" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="L97" s="30"/>
       <c r="M97" s="30"/>
@@ -10327,10 +10407,10 @@
         <v>70</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -10339,8 +10419,8 @@
       <c r="J98" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K98" s="35" t="s">
-        <v>228</v>
+      <c r="K98" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="L98" s="30"/>
       <c r="M98" s="30"/>
@@ -10365,10 +10445,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -10377,8 +10457,8 @@
       <c r="J99" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K99" s="35" t="s">
-        <v>237</v>
+      <c r="K99" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
@@ -10403,10 +10483,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -10416,7 +10496,7 @@
         <v>73</v>
       </c>
       <c r="K100" s="30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L100" s="30"/>
       <c r="M100" s="30"/>
@@ -10441,10 +10521,10 @@
         <v>81</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -10475,10 +10555,10 @@
         <v>81</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -10509,10 +10589,10 @@
         <v>81</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -10543,10 +10623,10 @@
         <v>81</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -10577,10 +10657,10 @@
         <v>81</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -10611,10 +10691,10 @@
         <v>81</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -10645,10 +10725,10 @@
         <v>81</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -10679,10 +10759,10 @@
         <v>81</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -10713,10 +10793,10 @@
         <v>81</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -10747,10 +10827,10 @@
         <v>81</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -10781,10 +10861,10 @@
         <v>81</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -10815,10 +10895,10 @@
         <v>81</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -10849,10 +10929,10 @@
         <v>81</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F113" s="28"/>
       <c r="G113" s="29"/>
@@ -10883,10 +10963,10 @@
         <v>90</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F114" s="28"/>
       <c r="G114" s="29"/>
@@ -10917,10 +10997,10 @@
         <v>90</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F115" s="28"/>
       <c r="G115" s="29"/>
@@ -10951,10 +11031,10 @@
         <v>90</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F116" s="28"/>
       <c r="G116" s="29"/>
@@ -10985,10 +11065,10 @@
         <v>90</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F117" s="28"/>
       <c r="G117" s="29"/>
@@ -11019,10 +11099,10 @@
         <v>90</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="29"/>
@@ -11053,10 +11133,10 @@
         <v>90</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F119" s="28"/>
       <c r="G119" s="29"/>
@@ -11087,10 +11167,10 @@
         <v>90</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F120" s="28"/>
       <c r="G120" s="29"/>
@@ -11121,10 +11201,10 @@
         <v>90</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F121" s="28"/>
       <c r="G121" s="29"/>
@@ -11155,10 +11235,10 @@
         <v>90</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F122" s="28"/>
       <c r="G122" s="29"/>
@@ -11189,10 +11269,10 @@
         <v>90</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="29"/>
@@ -11223,10 +11303,10 @@
         <v>90</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F124" s="28"/>
       <c r="G124" s="29"/>
@@ -11257,10 +11337,10 @@
         <v>90</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F125" s="28"/>
       <c r="G125" s="29"/>
@@ -11291,10 +11371,10 @@
         <v>90</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F126" s="28"/>
       <c r="G126" s="29"/>
@@ -11325,10 +11405,10 @@
         <v>90</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F127" s="28"/>
       <c r="G127" s="29"/>
@@ -11359,10 +11439,10 @@
         <v>90</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F128" s="28"/>
       <c r="G128" s="29"/>
@@ -11393,10 +11473,10 @@
         <v>99</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F129" s="28"/>
       <c r="G129" s="29"/>
@@ -11427,10 +11507,10 @@
         <v>99</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F130" s="28"/>
       <c r="G130" s="29"/>
@@ -11461,10 +11541,10 @@
         <v>99</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F131" s="28"/>
       <c r="G131" s="29"/>
@@ -11495,10 +11575,10 @@
         <v>99</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F132" s="28"/>
       <c r="G132" s="29"/>
@@ -11529,10 +11609,10 @@
         <v>99</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F133" s="28"/>
       <c r="G133" s="29"/>
@@ -11563,10 +11643,10 @@
         <v>99</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F134" s="28"/>
       <c r="G134" s="29"/>
@@ -11597,10 +11677,10 @@
         <v>99</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F135" s="28"/>
       <c r="G135" s="29"/>
@@ -11631,10 +11711,10 @@
         <v>99</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="29"/>
@@ -11665,10 +11745,10 @@
         <v>99</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="29"/>
@@ -11699,10 +11779,10 @@
         <v>99</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="29"/>
@@ -11733,10 +11813,10 @@
         <v>99</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="29"/>
@@ -11767,10 +11847,10 @@
         <v>99</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="29"/>
@@ -11801,10 +11881,10 @@
         <v>99</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="29"/>
@@ -11835,10 +11915,10 @@
         <v>99</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F142" s="28"/>
       <c r="G142" s="29"/>
@@ -11869,10 +11949,10 @@
         <v>99</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="29"/>
@@ -11903,10 +11983,10 @@
         <v>99</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F144" s="28"/>
       <c r="G144" s="29"/>
@@ -11937,10 +12017,10 @@
         <v>99</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F145" s="28"/>
       <c r="G145" s="29"/>
@@ -11971,10 +12051,10 @@
         <v>99</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F146" s="28"/>
       <c r="G146" s="29"/>
@@ -12005,10 +12085,10 @@
         <v>99</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="29"/>
@@ -12039,10 +12119,10 @@
         <v>99</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F148" s="28"/>
       <c r="G148" s="29"/>
@@ -12073,10 +12153,10 @@
         <v>99</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F149" s="28"/>
       <c r="G149" s="29"/>
@@ -12107,10 +12187,10 @@
         <v>99</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F150" s="28"/>
       <c r="G150" s="29"/>
@@ -12141,10 +12221,10 @@
         <v>99</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="29"/>
@@ -12175,10 +12255,10 @@
         <v>99</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F152" s="28"/>
       <c r="G152" s="29"/>
@@ -12209,10 +12289,10 @@
         <v>99</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F153" s="28"/>
       <c r="G153" s="29"/>
@@ -12232,7 +12312,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="25" t="n">
         <v>147</v>
       </c>
@@ -12243,10 +12323,10 @@
         <v>116</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F154" s="28"/>
       <c r="G154" s="29"/>
@@ -12270,7 +12350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25" t="n">
         <v>148</v>
       </c>
@@ -12281,10 +12361,10 @@
         <v>116</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F155" s="28"/>
       <c r="G155" s="29"/>
@@ -12308,7 +12388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="n">
         <v>149</v>
       </c>
@@ -12319,10 +12399,10 @@
         <v>116</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F156" s="28"/>
       <c r="G156" s="29"/>
@@ -12346,7 +12426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25" t="n">
         <v>150</v>
       </c>
@@ -12357,10 +12437,10 @@
         <v>116</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E157" s="27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F157" s="28"/>
       <c r="G157" s="29"/>
@@ -12384,7 +12464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="n">
         <v>151</v>
       </c>
@@ -12395,10 +12475,10 @@
         <v>116</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F158" s="28"/>
       <c r="G158" s="29"/>
@@ -12408,7 +12488,7 @@
         <v>73</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
@@ -12422,7 +12502,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25" t="n">
         <v>152</v>
       </c>
@@ -12433,10 +12513,10 @@
         <v>116</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E159" s="27" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F159" s="28"/>
       <c r="G159" s="29"/>
@@ -12446,7 +12526,7 @@
         <v>73</v>
       </c>
       <c r="K159" s="30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L159" s="30"/>
       <c r="M159" s="30"/>
@@ -12460,7 +12540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="n">
         <v>153</v>
       </c>
@@ -12471,10 +12551,10 @@
         <v>116</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E160" s="27" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F160" s="28"/>
       <c r="G160" s="29"/>
@@ -12484,7 +12564,7 @@
         <v>73</v>
       </c>
       <c r="K160" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L160" s="30"/>
       <c r="M160" s="30"/>
@@ -12498,7 +12578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25" t="n">
         <v>154</v>
       </c>
@@ -12509,10 +12589,10 @@
         <v>116</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F161" s="28"/>
       <c r="G161" s="29"/>
@@ -12522,7 +12602,7 @@
         <v>73</v>
       </c>
       <c r="K161" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
@@ -12536,7 +12616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="25" t="n">
         <v>155</v>
       </c>
@@ -12547,10 +12627,10 @@
         <v>116</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F162" s="28"/>
       <c r="G162" s="29"/>
@@ -12560,7 +12640,7 @@
         <v>73</v>
       </c>
       <c r="K162" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L162" s="30"/>
       <c r="M162" s="30"/>
@@ -12574,7 +12654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="25" t="n">
         <v>156</v>
       </c>
@@ -12585,10 +12665,10 @@
         <v>116</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F163" s="28"/>
       <c r="G163" s="29"/>
@@ -12598,7 +12678,7 @@
         <v>73</v>
       </c>
       <c r="K163" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
@@ -12612,7 +12692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="n">
         <v>157</v>
       </c>
@@ -12623,20 +12703,20 @@
         <v>116</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F164" s="28"/>
       <c r="G164" s="29"/>
       <c r="H164" s="29"/>
       <c r="I164" s="29"/>
-      <c r="J164" s="35" t="s">
+      <c r="J164" s="30" t="s">
         <v>73</v>
       </c>
       <c r="K164" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L164" s="30"/>
       <c r="M164" s="30"/>
@@ -12650,7 +12730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25" t="n">
         <v>158</v>
       </c>
@@ -12661,20 +12741,20 @@
         <v>116</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F165" s="28"/>
       <c r="G165" s="29"/>
       <c r="H165" s="29"/>
       <c r="I165" s="29"/>
-      <c r="J165" s="35" t="s">
+      <c r="J165" s="30" t="s">
         <v>73</v>
       </c>
       <c r="K165" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L165" s="30"/>
       <c r="M165" s="30"/>
@@ -12688,7 +12768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="n">
         <v>159</v>
       </c>
@@ -12699,10 +12779,10 @@
         <v>116</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F166" s="28"/>
       <c r="G166" s="29"/>
@@ -12712,7 +12792,7 @@
         <v>73</v>
       </c>
       <c r="K166" s="30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L166" s="30"/>
       <c r="M166" s="30"/>
@@ -12726,7 +12806,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="25" t="n">
         <v>160</v>
       </c>
@@ -12737,10 +12817,10 @@
         <v>116</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F167" s="28"/>
       <c r="G167" s="29"/>
@@ -12750,7 +12830,7 @@
         <v>73</v>
       </c>
       <c r="K167" s="30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L167" s="30"/>
       <c r="M167" s="30"/>
@@ -12764,7 +12844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="96.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="96.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="n">
         <v>161</v>
       </c>
@@ -12775,10 +12855,10 @@
         <v>116</v>
       </c>
       <c r="D168" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F168" s="28"/>
       <c r="G168" s="29"/>
@@ -12787,8 +12867,8 @@
       <c r="J168" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K168" s="36" t="s">
-        <v>219</v>
+      <c r="K168" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="L168" s="30"/>
       <c r="M168" s="30"/>
@@ -12802,7 +12882,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="25" t="n">
         <v>162</v>
       </c>
@@ -12813,10 +12893,10 @@
         <v>116</v>
       </c>
       <c r="D169" s="26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F169" s="28"/>
       <c r="G169" s="29"/>
@@ -12825,8 +12905,8 @@
       <c r="J169" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K169" s="35" t="s">
-        <v>379</v>
+      <c r="K169" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="L169" s="30"/>
       <c r="M169" s="30"/>
@@ -12840,7 +12920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="25" t="n">
         <v>163</v>
       </c>
@@ -12851,10 +12931,10 @@
         <v>116</v>
       </c>
       <c r="D170" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F170" s="28"/>
       <c r="G170" s="29"/>
@@ -12863,8 +12943,8 @@
       <c r="J170" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K170" s="35" t="s">
-        <v>382</v>
+      <c r="K170" s="30" t="s">
+        <v>384</v>
       </c>
       <c r="L170" s="30"/>
       <c r="M170" s="30"/>
@@ -12878,7 +12958,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="25" t="n">
         <v>164</v>
       </c>
@@ -12889,10 +12969,10 @@
         <v>116</v>
       </c>
       <c r="D171" s="26" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F171" s="28"/>
       <c r="G171" s="29"/>
@@ -12902,7 +12982,7 @@
         <v>73</v>
       </c>
       <c r="K171" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L171" s="30"/>
       <c r="M171" s="30"/>
@@ -12916,7 +12996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="25" t="n">
         <v>165</v>
       </c>
@@ -12927,10 +13007,10 @@
         <v>116</v>
       </c>
       <c r="D172" s="26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F172" s="28"/>
       <c r="G172" s="29"/>
@@ -12940,7 +13020,7 @@
         <v>73</v>
       </c>
       <c r="K172" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L172" s="30"/>
       <c r="M172" s="30"/>
@@ -12954,7 +13034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="25" t="n">
         <v>166</v>
       </c>
@@ -12965,10 +13045,10 @@
         <v>116</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F173" s="28"/>
       <c r="G173" s="29"/>
@@ -12978,7 +13058,7 @@
         <v>73</v>
       </c>
       <c r="K173" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L173" s="30"/>
       <c r="M173" s="30"/>
@@ -12992,7 +13072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="n">
         <v>167</v>
       </c>
@@ -13003,10 +13083,10 @@
         <v>116</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F174" s="28"/>
       <c r="G174" s="29"/>
@@ -13016,7 +13096,7 @@
         <v>73</v>
       </c>
       <c r="K174" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L174" s="30"/>
       <c r="M174" s="30"/>
@@ -13030,7 +13110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="n">
         <v>168</v>
       </c>
@@ -13041,10 +13121,10 @@
         <v>116</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F175" s="28"/>
       <c r="G175" s="29"/>
@@ -13054,7 +13134,7 @@
         <v>73</v>
       </c>
       <c r="K175" s="30" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L175" s="30"/>
       <c r="M175" s="30"/>
@@ -13068,7 +13148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="25" t="n">
         <v>169</v>
       </c>
@@ -13079,10 +13159,10 @@
         <v>116</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F176" s="28"/>
       <c r="G176" s="29"/>
@@ -13092,7 +13172,7 @@
         <v>73</v>
       </c>
       <c r="K176" s="30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L176" s="30"/>
       <c r="M176" s="30"/>
@@ -13117,10 +13197,10 @@
         <v>112</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F177" s="28"/>
       <c r="G177" s="29"/>
@@ -13151,10 +13231,10 @@
         <v>112</v>
       </c>
       <c r="D178" s="26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="29"/>
@@ -13185,10 +13265,10 @@
         <v>112</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="29"/>
@@ -13219,10 +13299,10 @@
         <v>112</v>
       </c>
       <c r="D180" s="26" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="29"/>
@@ -13253,10 +13333,10 @@
         <v>112</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="29"/>
@@ -13287,10 +13367,10 @@
         <v>112</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="29"/>
@@ -13321,10 +13401,10 @@
         <v>112</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="29"/>
@@ -13355,10 +13435,10 @@
         <v>112</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="29"/>
@@ -13389,10 +13469,10 @@
         <v>112</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="29"/>
@@ -13423,10 +13503,10 @@
         <v>112</v>
       </c>
       <c r="D186" s="26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="29"/>
@@ -13457,10 +13537,10 @@
         <v>112</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="29"/>
@@ -13491,10 +13571,10 @@
         <v>112</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F188" s="28"/>
       <c r="G188" s="29"/>
@@ -13525,10 +13605,10 @@
         <v>112</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F189" s="28"/>
       <c r="G189" s="29"/>
@@ -13559,10 +13639,10 @@
         <v>112</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F190" s="28"/>
       <c r="G190" s="29"/>
@@ -13593,10 +13673,10 @@
         <v>112</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F191" s="28"/>
       <c r="G191" s="29"/>
@@ -13627,10 +13707,10 @@
         <v>112</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F192" s="28"/>
       <c r="G192" s="29"/>
@@ -13661,10 +13741,10 @@
         <v>112</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F193" s="28"/>
       <c r="G193" s="29"/>
@@ -13695,10 +13775,10 @@
         <v>112</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F194" s="28"/>
       <c r="G194" s="29"/>
@@ -13729,10 +13809,10 @@
         <v>112</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F195" s="28"/>
       <c r="G195" s="29"/>
@@ -13763,10 +13843,10 @@
         <v>112</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F196" s="28"/>
       <c r="G196" s="29"/>
@@ -13797,10 +13877,10 @@
         <v>112</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F197" s="28"/>
       <c r="G197" s="29"/>
@@ -13831,10 +13911,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="29"/>
@@ -13859,16 +13939,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F199" s="28"/>
       <c r="G199" s="29"/>
@@ -13893,16 +13973,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="29"/>
@@ -13927,16 +14007,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="29"/>
@@ -13961,16 +14041,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C202" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="29"/>
@@ -13995,16 +14075,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F203" s="28"/>
       <c r="G203" s="29"/>
@@ -14029,16 +14109,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C204" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F204" s="28"/>
       <c r="G204" s="29"/>
@@ -14063,16 +14143,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C205" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F205" s="28"/>
       <c r="G205" s="29"/>
@@ -14097,16 +14177,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F206" s="28"/>
       <c r="G206" s="29"/>
@@ -14131,16 +14211,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C207" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F207" s="28"/>
       <c r="G207" s="29"/>
@@ -14165,16 +14245,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F208" s="28"/>
       <c r="G208" s="29"/>
@@ -14199,16 +14279,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F209" s="28"/>
       <c r="G209" s="29"/>
@@ -14233,16 +14313,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C210" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F210" s="28"/>
       <c r="G210" s="29"/>
@@ -14267,16 +14347,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C211" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F211" s="28"/>
       <c r="G211" s="29"/>
@@ -14301,16 +14381,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C212" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F212" s="28"/>
       <c r="G212" s="29"/>
@@ -14335,16 +14415,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C213" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E213" s="27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F213" s="28"/>
       <c r="G213" s="29"/>
@@ -14369,16 +14449,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C214" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F214" s="28"/>
       <c r="G214" s="29"/>
@@ -14403,16 +14483,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C215" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F215" s="28"/>
       <c r="G215" s="29"/>
@@ -14437,16 +14517,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C216" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F216" s="28"/>
       <c r="G216" s="29"/>
@@ -14471,16 +14551,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C217" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E217" s="27" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F217" s="28"/>
       <c r="G217" s="29"/>
@@ -14505,16 +14585,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C218" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F218" s="28"/>
       <c r="G218" s="29"/>
@@ -14539,16 +14619,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C219" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F219" s="28"/>
       <c r="G219" s="29"/>
@@ -14573,16 +14653,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C220" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F220" s="28"/>
       <c r="G220" s="29"/>
@@ -14607,16 +14687,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C221" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F221" s="28"/>
       <c r="G221" s="29"/>
@@ -14641,16 +14721,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C222" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="29"/>
@@ -14675,16 +14755,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C223" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F223" s="28"/>
       <c r="G223" s="29"/>
@@ -14709,16 +14789,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C224" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F224" s="28"/>
       <c r="G224" s="29"/>
@@ -14743,16 +14823,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C225" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
@@ -14777,16 +14857,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C226" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F226" s="28"/>
       <c r="G226" s="29"/>
@@ -14811,16 +14891,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C227" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F227" s="28"/>
       <c r="G227" s="29"/>
@@ -14845,16 +14925,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C228" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F228" s="28"/>
       <c r="G228" s="29"/>
@@ -14879,16 +14959,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F229" s="28"/>
       <c r="G229" s="29"/>
@@ -14913,16 +14993,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F230" s="28"/>
       <c r="G230" s="29"/>
@@ -14947,16 +15027,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F231" s="28"/>
       <c r="G231" s="29"/>
@@ -14983,16 +15063,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F232" s="28"/>
       <c r="G232" s="29"/>
@@ -15019,16 +15099,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C233" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F233" s="28"/>
       <c r="G233" s="29"/>
@@ -15055,16 +15135,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C234" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F234" s="28"/>
       <c r="G234" s="29"/>
@@ -15091,16 +15171,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C235" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
@@ -15127,16 +15207,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C236" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F236" s="28"/>
       <c r="G236" s="29"/>
@@ -15163,16 +15243,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C237" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F237" s="28"/>
       <c r="G237" s="29"/>
@@ -15182,7 +15262,7 @@
         <v>73</v>
       </c>
       <c r="K237" s="30" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L237" s="30"/>
       <c r="M237" s="30"/>
@@ -15201,16 +15281,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C238" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F238" s="28"/>
       <c r="G238" s="29"/>
@@ -15237,16 +15317,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
@@ -15255,8 +15335,8 @@
       <c r="J239" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K239" s="35" t="s">
-        <v>528</v>
+      <c r="K239" s="30" t="s">
+        <v>530</v>
       </c>
       <c r="L239" s="30"/>
       <c r="M239" s="30"/>
@@ -15275,16 +15355,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C240" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F240" s="28"/>
       <c r="G240" s="29"/>
@@ -15293,8 +15373,8 @@
       <c r="J240" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K240" s="35" t="s">
-        <v>528</v>
+      <c r="K240" s="30" t="s">
+        <v>530</v>
       </c>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
@@ -15313,16 +15393,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C241" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F241" s="28"/>
       <c r="G241" s="29"/>
@@ -15331,8 +15411,8 @@
       <c r="J241" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K241" s="35" t="s">
-        <v>528</v>
+      <c r="K241" s="30" t="s">
+        <v>530</v>
       </c>
       <c r="L241" s="30"/>
       <c r="M241" s="30"/>
@@ -15351,16 +15431,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C242" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
@@ -15369,8 +15449,8 @@
       <c r="J242" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K242" s="35" t="s">
-        <v>528</v>
+      <c r="K242" s="30" t="s">
+        <v>530</v>
       </c>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -15389,16 +15469,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C243" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F243" s="28"/>
       <c r="G243" s="29"/>
@@ -15425,16 +15505,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C244" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F244" s="28"/>
       <c r="G244" s="29"/>
@@ -15461,16 +15541,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C245" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F245" s="28"/>
       <c r="G245" s="29"/>
@@ -15497,16 +15577,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C246" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F246" s="28"/>
       <c r="G246" s="29"/>
@@ -15533,16 +15613,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C247" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
@@ -15567,16 +15647,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C248" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F248" s="28"/>
       <c r="G248" s="29"/>
@@ -15601,16 +15681,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C249" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F249" s="28"/>
       <c r="G249" s="29"/>
@@ -15635,16 +15715,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C250" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F250" s="28"/>
       <c r="G250" s="29"/>
@@ -15669,16 +15749,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C251" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
@@ -15703,16 +15783,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C252" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="29"/>
@@ -15737,16 +15817,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F253" s="28"/>
       <c r="G253" s="29"/>
@@ -15771,16 +15851,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C254" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
@@ -15805,16 +15885,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C255" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
@@ -15839,16 +15919,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="29"/>
@@ -15873,16 +15953,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C257" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F257" s="28"/>
       <c r="G257" s="29"/>
@@ -15907,16 +15987,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C258" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E258" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="29"/>
@@ -15941,16 +16021,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C259" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E259" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F259" s="28"/>
       <c r="G259" s="29"/>
@@ -15975,16 +16055,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C260" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E260" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F260" s="28"/>
       <c r="G260" s="29"/>
@@ -16009,16 +16089,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E261" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F261" s="28"/>
       <c r="G261" s="29"/>
@@ -16043,16 +16123,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C262" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F262" s="28"/>
       <c r="G262" s="29"/>
@@ -16077,16 +16157,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C263" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F263" s="28"/>
       <c r="G263" s="29"/>
@@ -16111,16 +16191,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F264" s="28"/>
       <c r="G264" s="29"/>
@@ -16145,16 +16225,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F265" s="28"/>
       <c r="G265" s="29"/>
@@ -16179,16 +16259,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C266" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="29"/>
@@ -16213,16 +16293,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F267" s="28"/>
       <c r="G267" s="29"/>
@@ -16247,16 +16327,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F268" s="28"/>
       <c r="G268" s="29"/>
@@ -16281,16 +16361,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C269" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F269" s="28"/>
       <c r="G269" s="29"/>
@@ -16315,16 +16395,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C270" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="29"/>
@@ -16349,16 +16429,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C271" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="29"/>
@@ -16383,16 +16463,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C272" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E272" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="29"/>
@@ -16417,16 +16497,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C273" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E273" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F273" s="28"/>
       <c r="G273" s="29"/>
@@ -16451,16 +16531,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C274" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E274" s="27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F274" s="28"/>
       <c r="G274" s="29"/>
@@ -16485,16 +16565,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F275" s="28"/>
       <c r="G275" s="29"/>
@@ -16519,16 +16599,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C276" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F276" s="28"/>
       <c r="G276" s="29"/>
@@ -16553,16 +16633,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C277" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E277" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="29"/>
@@ -16587,16 +16667,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C278" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E278" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F278" s="28"/>
       <c r="G278" s="29"/>
@@ -16621,16 +16701,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C279" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E279" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
@@ -16655,16 +16735,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E280" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
@@ -16689,16 +16769,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E281" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="29"/>
@@ -16723,16 +16803,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E282" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="29"/>
@@ -16757,16 +16837,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C283" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E283" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F283" s="28"/>
       <c r="G283" s="29"/>
@@ -16791,16 +16871,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C284" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F284" s="28"/>
       <c r="G284" s="29"/>
@@ -16825,16 +16905,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C285" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="29"/>
@@ -16859,16 +16939,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C286" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E286" s="27" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F286" s="28"/>
       <c r="G286" s="29"/>
@@ -16893,16 +16973,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C287" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E287" s="27" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="29"/>
@@ -16927,16 +17007,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C288" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F288" s="28"/>
       <c r="G288" s="29"/>
@@ -16961,16 +17041,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C289" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F289" s="28"/>
       <c r="G289" s="29"/>
@@ -16995,16 +17075,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C290" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F290" s="28"/>
       <c r="G290" s="29"/>
@@ -17029,16 +17109,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C291" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F291" s="28"/>
       <c r="G291" s="29"/>
@@ -17063,16 +17143,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C292" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E292" s="27" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F292" s="28"/>
       <c r="G292" s="29"/>
@@ -17097,16 +17177,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C293" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E293" s="27" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F293" s="28"/>
       <c r="G293" s="29"/>
@@ -17131,16 +17211,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C294" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D294" s="26" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E294" s="27" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F294" s="28"/>
       <c r="G294" s="29"/>
@@ -17165,21 +17245,29 @@
         <v>288</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C295" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E295" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="F295" s="28"/>
-      <c r="G295" s="29"/>
-      <c r="H295" s="29"/>
-      <c r="I295" s="29"/>
+        <v>638</v>
+      </c>
+      <c r="F295" s="28" t="n">
+        <v>45508</v>
+      </c>
+      <c r="G295" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="H295" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="I295" s="29" t="s">
+        <v>641</v>
+      </c>
       <c r="J295" s="30" t="s">
         <v>133</v>
       </c>
@@ -17196,23 +17284,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="197.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="197.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25" t="n">
         <v>289</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C296" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E296" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="F296" s="28"/>
+        <v>643</v>
+      </c>
+      <c r="F296" s="37" t="n">
+        <v>45508</v>
+      </c>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
       <c r="I296" s="29"/>
@@ -17237,21 +17327,29 @@
         <v>290</v>
       </c>
       <c r="B297" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C297" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="E297" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="F297" s="28"/>
-      <c r="G297" s="29"/>
-      <c r="H297" s="29"/>
-      <c r="I297" s="29"/>
+        <v>645</v>
+      </c>
+      <c r="F297" s="28" t="n">
+        <v>45508</v>
+      </c>
+      <c r="G297" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="H297" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="I297" s="29" t="s">
+        <v>648</v>
+      </c>
       <c r="J297" s="30" t="s">
         <v>133</v>
       </c>
@@ -17268,26 +17366,34 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="105.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="104.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25" t="n">
         <v>291</v>
       </c>
       <c r="B298" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C298" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="E298" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="F298" s="28"/>
-      <c r="G298" s="29"/>
-      <c r="H298" s="29"/>
-      <c r="I298" s="29"/>
+        <v>650</v>
+      </c>
+      <c r="F298" s="28" t="n">
+        <v>45508</v>
+      </c>
+      <c r="G298" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="H298" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="I298" s="29" t="s">
+        <v>653</v>
+      </c>
       <c r="J298" s="30" t="s">
         <v>133</v>
       </c>
@@ -17304,26 +17410,34 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="174.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="173.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="n">
         <v>292</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C299" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="E299" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="F299" s="28"/>
-      <c r="G299" s="29"/>
-      <c r="H299" s="29"/>
-      <c r="I299" s="29"/>
+        <v>655</v>
+      </c>
+      <c r="F299" s="28" t="n">
+        <v>45508</v>
+      </c>
+      <c r="G299" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="H299" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="I299" s="29" t="s">
+        <v>658</v>
+      </c>
       <c r="J299" s="30" t="s">
         <v>133</v>
       </c>
@@ -17345,16 +17459,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C300" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D300" s="26" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="E300" s="27" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="F300" s="28"/>
       <c r="G300" s="29"/>
@@ -17376,21 +17490,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="25" t="n">
         <v>294</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C301" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="E301" s="27" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
@@ -17400,7 +17514,7 @@
         <v>73</v>
       </c>
       <c r="K301" s="30" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L301" s="30"/>
       <c r="M301" s="30"/>
@@ -17419,16 +17533,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C302" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="E302" s="27" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
@@ -17450,21 +17564,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="155.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="155.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="25" t="n">
         <v>296</v>
       </c>
       <c r="B303" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C303" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
@@ -17474,7 +17588,7 @@
         <v>73</v>
       </c>
       <c r="K303" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L303" s="30"/>
       <c r="M303" s="30"/>
@@ -17488,21 +17602,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="143.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="143.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="25" t="n">
         <v>297</v>
       </c>
       <c r="B304" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C304" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D304" s="26" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
@@ -17512,7 +17626,7 @@
         <v>73</v>
       </c>
       <c r="K304" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L304" s="30"/>
       <c r="M304" s="30"/>
@@ -17526,21 +17640,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="150.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="n">
         <v>298</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C305" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
@@ -17550,7 +17664,7 @@
         <v>73</v>
       </c>
       <c r="K305" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L305" s="30"/>
       <c r="M305" s="30"/>
@@ -17564,21 +17678,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="155.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="155.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="25" t="n">
         <v>299</v>
       </c>
       <c r="B306" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C306" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
@@ -17588,7 +17702,7 @@
         <v>73</v>
       </c>
       <c r="K306" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L306" s="30"/>
       <c r="M306" s="30"/>
@@ -17607,16 +17721,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C307" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F307" s="28"/>
       <c r="G307" s="29"/>
@@ -17643,16 +17757,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C308" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="F308" s="28"/>
       <c r="G308" s="29"/>
@@ -17679,16 +17793,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C309" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="E309" s="27" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="F309" s="28"/>
       <c r="G309" s="29"/>
@@ -17715,16 +17829,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C310" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F310" s="28"/>
       <c r="G310" s="29"/>
@@ -17751,16 +17865,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C311" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
@@ -17785,16 +17899,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C312" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D312" s="26" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
@@ -17819,16 +17933,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C313" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
@@ -17853,16 +17967,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C314" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
@@ -17887,16 +18001,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C315" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="F315" s="28"/>
       <c r="G315" s="29"/>
@@ -17921,16 +18035,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C316" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
@@ -17955,16 +18069,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C317" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
@@ -17989,16 +18103,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C318" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
@@ -18023,16 +18137,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C319" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
@@ -18057,16 +18171,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C320" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
@@ -18091,16 +18205,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C321" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="E321" s="27" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="F321" s="28"/>
       <c r="G321" s="29"/>
@@ -18125,16 +18239,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C322" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="E322" s="27" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="F322" s="28"/>
       <c r="G322" s="29"/>
@@ -18159,16 +18273,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C323" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D323" s="26" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="E323" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F323" s="28"/>
       <c r="G323" s="29"/>
@@ -18193,16 +18307,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C324" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="E324" s="27" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
@@ -18227,16 +18341,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C325" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="E325" s="27" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
@@ -18261,16 +18375,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C326" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="E326" s="27" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F326" s="28"/>
       <c r="G326" s="29"/>
@@ -18295,16 +18409,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C327" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="E327" s="27" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
@@ -18329,16 +18443,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C328" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E328" s="27" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="F328" s="28"/>
       <c r="G328" s="29"/>
@@ -18363,16 +18477,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C329" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="F329" s="28"/>
       <c r="G329" s="29"/>
@@ -18397,16 +18511,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C330" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
@@ -18431,16 +18545,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C331" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
@@ -18465,16 +18579,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C332" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="F332" s="28"/>
       <c r="G332" s="29"/>
@@ -18499,16 +18613,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C333" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="F333" s="28"/>
       <c r="G333" s="29"/>
@@ -18533,16 +18647,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C334" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
@@ -18567,16 +18681,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C335" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="F335" s="28"/>
       <c r="G335" s="29"/>
@@ -18585,8 +18699,8 @@
       <c r="J335" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K335" s="35" t="s">
-        <v>715</v>
+      <c r="K335" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L335" s="30"/>
       <c r="M335" s="30"/>
@@ -18605,16 +18719,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C336" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F336" s="28"/>
       <c r="G336" s="29"/>
@@ -18623,8 +18737,8 @@
       <c r="J336" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K336" s="35" t="s">
-        <v>718</v>
+      <c r="K336" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L336" s="30"/>
       <c r="M336" s="30"/>
@@ -18643,16 +18757,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C337" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="F337" s="28"/>
       <c r="G337" s="29"/>
@@ -18661,8 +18775,8 @@
       <c r="J337" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K337" s="35" t="s">
-        <v>715</v>
+      <c r="K337" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L337" s="30"/>
       <c r="M337" s="30"/>
@@ -18681,16 +18795,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C338" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
@@ -18699,8 +18813,8 @@
       <c r="J338" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K338" s="35" t="s">
-        <v>718</v>
+      <c r="K338" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L338" s="30"/>
       <c r="M338" s="30"/>
@@ -18719,16 +18833,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C339" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D339" s="26" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
@@ -18753,16 +18867,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C340" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D340" s="26" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="F340" s="28"/>
       <c r="G340" s="29"/>
@@ -18787,16 +18901,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C341" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D341" s="26" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="F341" s="28"/>
       <c r="G341" s="29"/>
@@ -18821,16 +18935,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C342" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D342" s="26" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="F342" s="28"/>
       <c r="G342" s="29"/>
@@ -18855,16 +18969,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C343" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D343" s="26" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
@@ -18889,16 +19003,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C344" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D344" s="26" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="F344" s="28"/>
       <c r="G344" s="29"/>
@@ -18923,16 +19037,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C345" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D345" s="26" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="E345" s="27" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="F345" s="28"/>
       <c r="G345" s="29"/>
@@ -18957,16 +19071,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C346" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="E346" s="27" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="F346" s="28"/>
       <c r="G346" s="29"/>
@@ -18991,16 +19105,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C347" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D347" s="26" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="E347" s="27" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="F347" s="28"/>
       <c r="G347" s="29"/>
@@ -19025,16 +19139,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C348" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D348" s="26" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="E348" s="27" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
@@ -19059,16 +19173,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C349" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D349" s="26" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="E349" s="27" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="F349" s="28"/>
       <c r="G349" s="29"/>
@@ -19093,16 +19207,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C350" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D350" s="26" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="E350" s="27" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="F350" s="28"/>
       <c r="G350" s="29"/>
@@ -19122,31 +19236,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="203.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="203.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="25" t="n">
         <v>344</v>
       </c>
       <c r="B351" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C351" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D351" s="26" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="E351" s="27" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
       <c r="H351" s="29"/>
       <c r="I351" s="29"/>
-      <c r="J351" s="35" t="s">
+      <c r="J351" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K351" s="35" t="s">
-        <v>715</v>
+      <c r="K351" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L351" s="30"/>
       <c r="M351" s="30"/>
@@ -19160,31 +19274,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="167.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="25" t="n">
         <v>345</v>
       </c>
       <c r="B352" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C352" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D352" s="26" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="E352" s="27" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="F352" s="28"/>
       <c r="G352" s="29"/>
       <c r="H352" s="29"/>
       <c r="I352" s="29"/>
-      <c r="J352" s="35" t="s">
+      <c r="J352" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K352" s="35" t="s">
-        <v>718</v>
+      <c r="K352" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L352" s="30"/>
       <c r="M352" s="30"/>
@@ -19198,31 +19312,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="179.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="179.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="n">
         <v>346</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C353" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D353" s="26" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="E353" s="27" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="F353" s="28"/>
       <c r="G353" s="29"/>
       <c r="H353" s="29"/>
       <c r="I353" s="29"/>
-      <c r="J353" s="35" t="s">
+      <c r="J353" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K353" s="35" t="s">
-        <v>715</v>
+      <c r="K353" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L353" s="30"/>
       <c r="M353" s="30"/>
@@ -19236,31 +19350,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="167.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="25" t="n">
         <v>347</v>
       </c>
       <c r="B354" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C354" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D354" s="26" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="F354" s="28"/>
       <c r="G354" s="29"/>
       <c r="H354" s="29"/>
       <c r="I354" s="29"/>
-      <c r="J354" s="35" t="s">
+      <c r="J354" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K354" s="35" t="s">
-        <v>718</v>
+      <c r="K354" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L354" s="30"/>
       <c r="M354" s="30"/>
@@ -19279,16 +19393,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C355" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D355" s="26" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
@@ -19313,16 +19427,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C356" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="E356" s="27" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="F356" s="28"/>
       <c r="G356" s="29"/>
@@ -19347,16 +19461,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C357" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D357" s="26" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="E357" s="27" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="F357" s="28"/>
       <c r="G357" s="29"/>
@@ -19381,16 +19495,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C358" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="E358" s="27" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="F358" s="28"/>
       <c r="G358" s="29"/>
@@ -19415,16 +19529,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C359" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="26" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="E359" s="27" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="F359" s="28"/>
       <c r="G359" s="29"/>
@@ -19449,16 +19563,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C360" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="E360" s="27" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="F360" s="28"/>
       <c r="G360" s="29"/>
@@ -19483,16 +19597,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C361" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="E361" s="27" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="F361" s="28"/>
       <c r="G361" s="29"/>
@@ -19517,16 +19631,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C362" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="E362" s="27" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="F362" s="28"/>
       <c r="G362" s="29"/>
@@ -19551,16 +19665,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C363" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="26" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="E363" s="27" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="F363" s="28"/>
       <c r="G363" s="29"/>
@@ -19569,8 +19683,8 @@
       <c r="J363" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K363" s="35" t="s">
-        <v>715</v>
+      <c r="K363" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L363" s="30"/>
       <c r="M363" s="30"/>
@@ -19589,16 +19703,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C364" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="E364" s="27" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="F364" s="28"/>
       <c r="G364" s="29"/>
@@ -19607,8 +19721,8 @@
       <c r="J364" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K364" s="35" t="s">
-        <v>718</v>
+      <c r="K364" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L364" s="30"/>
       <c r="M364" s="30"/>
@@ -19627,16 +19741,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C365" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D365" s="26" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="E365" s="27" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="F365" s="28"/>
       <c r="G365" s="29"/>
@@ -19661,16 +19775,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C366" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="E366" s="27" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="F366" s="28"/>
       <c r="G366" s="29"/>
@@ -19695,16 +19809,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C367" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D367" s="26" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="E367" s="27" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="F367" s="28"/>
       <c r="G367" s="29"/>
@@ -19729,16 +19843,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C368" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D368" s="26" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="E368" s="27" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="F368" s="28"/>
       <c r="G368" s="29"/>
@@ -19763,16 +19877,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C369" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D369" s="26" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="E369" s="27" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
@@ -19797,16 +19911,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C370" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="E370" s="27" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="F370" s="28"/>
       <c r="G370" s="29"/>
@@ -19826,21 +19940,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="191.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="191.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="25" t="n">
         <v>364</v>
       </c>
       <c r="B371" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C371" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D371" s="26" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="E371" s="27" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="F371" s="28"/>
       <c r="G371" s="29"/>
@@ -19849,8 +19963,8 @@
       <c r="J371" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K371" s="35" t="s">
-        <v>715</v>
+      <c r="K371" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="L371" s="30"/>
       <c r="M371" s="30"/>
@@ -19864,21 +19978,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="167.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="25" t="n">
         <v>365</v>
       </c>
       <c r="B372" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C372" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="E372" s="27" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="F372" s="28"/>
       <c r="G372" s="29"/>
@@ -19887,8 +20001,8 @@
       <c r="J372" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K372" s="35" t="s">
-        <v>718</v>
+      <c r="K372" s="30" t="s">
+        <v>732</v>
       </c>
       <c r="L372" s="30"/>
       <c r="M372" s="30"/>
@@ -19907,16 +20021,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C373" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D373" s="26" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="E373" s="27" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="F373" s="28"/>
       <c r="G373" s="29"/>
@@ -19941,16 +20055,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C374" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="E374" s="27" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="F374" s="28"/>
       <c r="G374" s="29"/>
@@ -19981,10 +20095,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="26" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="E375" s="27" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="F375" s="28"/>
       <c r="G375" s="29"/>
@@ -20015,10 +20129,10 @@
         <v>61</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="E376" s="27" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="F376" s="28"/>
       <c r="G376" s="29"/>
@@ -20049,16 +20163,16 @@
         <v>70</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="E377" s="27" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="F377" s="28"/>
       <c r="G377" s="29"/>
       <c r="H377" s="29"/>
       <c r="I377" s="29"/>
-      <c r="J377" s="35" t="s">
+      <c r="J377" s="30" t="s">
         <v>133</v>
       </c>
       <c r="K377" s="30"/>
@@ -20085,10 +20199,10 @@
         <v>81</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="E378" s="27" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="F378" s="28"/>
       <c r="G378" s="29"/>
@@ -20119,10 +20233,10 @@
         <v>90</v>
       </c>
       <c r="D379" s="26" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="E379" s="27" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="F379" s="28"/>
       <c r="G379" s="29"/>
@@ -20153,10 +20267,10 @@
         <v>99</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="E380" s="27" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="F380" s="28"/>
       <c r="G380" s="29"/>
@@ -20176,7 +20290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="119.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25" t="n">
         <v>374</v>
       </c>
@@ -20187,16 +20301,24 @@
         <v>116</v>
       </c>
       <c r="D381" s="26" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="E381" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F381" s="28"/>
-      <c r="G381" s="29"/>
-      <c r="H381" s="29"/>
-      <c r="I381" s="29"/>
-      <c r="J381" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="F381" s="28" t="n">
+        <v>45508</v>
+      </c>
+      <c r="G381" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="H381" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="I381" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="J381" s="30" t="s">
         <v>133</v>
       </c>
       <c r="K381" s="30"/>
@@ -20223,10 +20345,10 @@
         <v>112</v>
       </c>
       <c r="D382" s="26" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="E382" s="27" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="F382" s="28"/>
       <c r="G382" s="29"/>
@@ -20257,10 +20379,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="26" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="E383" s="27" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="F383" s="28"/>
       <c r="G383" s="29"/>
@@ -24936,6 +25058,20 @@
     <filterColumn colId="2">
       <filters>
         <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AGGIORNAMENTO_METADATI"/>
+        <filter val="ELIMINAZIONE"/>
+        <filter val="OSCURAMENTO"/>
+        <filter val="PUBBLICAZIONE_CREAZIONE"/>
+        <filter val="PUBBLICAZIONE_SOSTITUZIONE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -24959,7 +25095,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E235" r:id="rId2" display="https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway"/>
+    <hyperlink ref="E235" r:id="rId2" display="Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1&#10;&#10;Viene richiamato il servizio di Aggiornamento Metadati &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata&quot;al fine di testare l'aggiornamento dei metadati (&quot;attiCliniciRegoleAccesso&quot;), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10;&#10;Per la richiesta è necessario:&#10;▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;&#10;▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json &quot;RAD - Caso di Test 4 - Oscuramento&quot; presente al path &quot;https://github.com/ministero-salute/it-fse-accreditamento&quot;.&#10;&#10;Per tutti gli utenti è necessario che il campo &quot;idDoc&quot;da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -24980,7 +25116,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -25003,10 +25139,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25014,13 +25150,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>817</v>
+        <v>832</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25028,13 +25164,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>818</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>819</v>
+        <v>832</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25042,13 +25178,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>821</v>
+        <v>832</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25056,13 +25192,13 @@
         <v>81</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>823</v>
+        <v>832</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25070,13 +25206,13 @@
         <v>90</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>825</v>
+        <v>832</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25084,13 +25220,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>826</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>827</v>
+        <v>832</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25098,13 +25234,13 @@
         <v>116</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>828</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>829</v>
+        <v>832</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25112,27 +25248,27 @@
         <v>112</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>834</v>
+      <c r="C10" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25140,13 +25276,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C11" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>836</v>
+      <c r="D11" s="38" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25154,13 +25290,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C12" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>837</v>
+      <c r="D12" s="38" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25168,13 +25304,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C13" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>838</v>
+      <c r="D13" s="39" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25182,13 +25318,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C14" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>839</v>
+      <c r="D14" s="38" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25196,13 +25332,13 @@
         <v>90</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C15" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>840</v>
+      <c r="D15" s="39" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25210,13 +25346,13 @@
         <v>99</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C16" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>841</v>
+      <c r="D16" s="39" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25224,13 +25360,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C17" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>842</v>
+      <c r="D17" s="39" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25238,13 +25374,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="37" t="n">
+        <v>852</v>
+      </c>
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>843</v>
+      <c r="D18" s="39" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25252,13 +25388,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C19" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>845</v>
+      <c r="D19" s="38" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25266,13 +25402,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C20" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>846</v>
+      <c r="D20" s="38" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25280,13 +25416,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C21" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>847</v>
+      <c r="D21" s="39" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25294,13 +25430,13 @@
         <v>81</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C22" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>848</v>
+      <c r="D22" s="38" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25308,13 +25444,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C23" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>849</v>
+      <c r="D23" s="39" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25322,13 +25458,13 @@
         <v>99</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C24" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>850</v>
+      <c r="D24" s="39" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25336,13 +25472,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C25" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>851</v>
+      <c r="D25" s="39" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25350,13 +25486,13 @@
         <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C26" s="37" t="n">
+        <v>861</v>
+      </c>
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>852</v>
+      <c r="D26" s="39" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25364,13 +25500,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C27" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>854</v>
+      <c r="D27" s="38" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25378,13 +25514,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C28" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>855</v>
+      <c r="D28" s="38" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25392,13 +25528,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C29" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>856</v>
+      <c r="D29" s="40" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25406,13 +25542,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C30" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>857</v>
+      <c r="D30" s="38" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25420,13 +25556,13 @@
         <v>90</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C31" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>858</v>
+      <c r="D31" s="39" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25434,13 +25570,13 @@
         <v>99</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C32" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>859</v>
+      <c r="D32" s="39" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25448,13 +25584,13 @@
         <v>116</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C33" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>860</v>
+      <c r="D33" s="39" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25462,13 +25598,13 @@
         <v>112</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C34" s="37" t="n">
+        <v>870</v>
+      </c>
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>861</v>
+      <c r="D34" s="39" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25476,12 +25612,12 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C35" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="37" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25490,12 +25626,12 @@
         <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C36" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="37" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
@@ -25504,12 +25640,12 @@
         <v>70</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C37" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="38" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
@@ -25518,12 +25654,12 @@
         <v>81</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C38" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="37" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
@@ -25532,12 +25668,12 @@
         <v>90</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C39" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="38" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
@@ -25546,12 +25682,12 @@
         <v>99</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C40" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="38" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
@@ -25560,12 +25696,12 @@
         <v>116</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C41" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="38" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -25574,12 +25710,12 @@
         <v>112</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C42" s="37" t="n">
+        <v>879</v>
+      </c>
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="38" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -25588,12 +25724,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C43" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="37" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25602,12 +25738,12 @@
         <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C44" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="37" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
@@ -25616,12 +25752,12 @@
         <v>70</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C45" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="38" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
@@ -25630,12 +25766,12 @@
         <v>81</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C46" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="37" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -25644,12 +25780,12 @@
         <v>90</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C47" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="38" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
@@ -25658,12 +25794,12 @@
         <v>99</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C48" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="38" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -25672,12 +25808,12 @@
         <v>116</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C49" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="38" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
@@ -25686,12 +25822,12 @@
         <v>112</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C50" s="37" t="n">
+        <v>880</v>
+      </c>
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="38" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>
@@ -26663,7 +26799,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -26675,32 +26811,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>864</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="41" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>865</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="41" t="s">
+        <v>882</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="930">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -694,13 +694,13 @@
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo mantiene lo storico di tutti gli invii effettuati al gateway FSE e rende disponibile all’utente la possibilità di inviare nuovamente eventuali documenti andati in errore.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo mantiene lo storico di tutti gli invii effettuati al gateway FSE e rende disponibile all’utente la possibilità di inviare nuovamente eventuali documenti andati in errore.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
@@ -2217,6 +2217,15 @@
 ▪per comporre i metadati contenente la RequestBody utilizzare il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:23:19Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b766c7697495721c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.9e9cff8e937832c2b7e25d37e14a20f2575d9df9e0a95f7fac9c0746c9384faa.0739b6c886^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT1</t>
   </si>
   <si>
@@ -2228,6 +2237,15 @@
 Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:25:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d712ad9dfdb939fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.9e9cff8e937832c2b7e25d37e14a20f2575d9df9e0a95f7fac9c0746c9384faa.e6063b2a96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGGIORNAMENTO_METADATI_CDA2_RAD_CT1</t>
   </si>
   <si>
@@ -2239,12 +2257,30 @@
 Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:27:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6b2c598a2c7263cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">790ee0f2f38a077f27fc893f4ee8e28103b599b7b63f19f00ea828c062890af7.1df7a2dab0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELIMINAZIONE_CDA2_RAD_CT1</t>
   </si>
   <si>
     <t xml:space="preserve">Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
 Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T15:29:15Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f10ceb5702fc731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a5b831ef83b8540d5e6f2e56ab72221e1e8735d5ebccbca88495b489be99e0cb.780dac6985^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">OSCURAMENTO_CDA2_RAD_CT1</t>
@@ -2258,6 +2294,15 @@
 Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:31:12Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e5b0ebd7807f4bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a687499d36c901f07b153ae81b375149f418022cd53df3564e9abeb54f5a045.2e29f366ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT2_KO</t>
   </si>
   <si>
@@ -2269,6 +2314,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:32:31Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78cd47152983c177</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT3_KO</t>
   </si>
   <si>
@@ -2291,6 +2342,15 @@
 Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
 ▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
 ▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T15:33:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c318139c40634e4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.9e9cff8e937832c2b7e25d37e14a20f2575d9df9e0a95f7fac9c0746c9384faa.cff7c72e4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT5_KO</t>
@@ -2346,6 +2406,12 @@
     <t xml:space="preserve">ELIMINAZIONE_CDA2_RAD_CT2_KO</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2024-04-09T15:35:07Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4f2c27289fe0002</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGGIORNAMENTO_METADATI_CDA2_RAD_CT2_KO</t>
   </si>
   <si>
@@ -2357,6 +2423,12 @@
 Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:35:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5f909bd39b3e44d</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT2_KO</t>
   </si>
   <si>
@@ -2368,6 +2440,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T15:37:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9e6d3dabb2592ba6</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSCURAMENTO_CDA2_RAD_CT2_KO</t>
   </si>
   <si>
@@ -2376,6 +2454,12 @@
 ▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
 ▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
 Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T15:37:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4375ed6b853da2b7</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1</t>
@@ -2903,6 +2987,15 @@
 Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T14:27:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521fe055bd051fb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.b23570567a83b6a6f630734d8c33d291f7ea5d4c4bcc71b6115ef232bdd591c9.cb09638af7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGGIORNAMENTO_METADATI_CDA2_RSA_CT1</t>
   </si>
   <si>
@@ -2951,13 +3044,13 @@
 Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-08T15:51:47Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6732fbc917b6ae6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2a7bd8d32addb88252352829debb47fcbdb3b41d2013ffa194dacba622d1fa8.004e0e3fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-09T14:37:11Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16ce7b826ec10526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2f01395843292e8300097cc3487c5c76c85ef3b30f8014da1b73948e11b595f.8c3a8cffce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT2_KO</t>
@@ -2971,6 +3064,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T14:28:25Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568fd7c7690eb73d</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT3_KO</t>
   </si>
   <si>
@@ -2990,6 +3089,15 @@
 Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
 ▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
 ▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T14:31:19Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1af7cfeb64a9c45b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.b23570567a83b6a6f630734d8c33d291f7ea5d4c4bcc71b6115ef232bdd591c9.365880431f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT5_KO</t>
@@ -3042,6 +3150,12 @@
     <t xml:space="preserve">ELIMINAZIONE_CDA2_RSA_CT2_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T14:32:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1771f3cf94e99dbf</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGGIORNAMENTO_METADATI_CDA2_RSA_CT2_KO</t>
   </si>
   <si>
@@ -3053,6 +3167,12 @@
 Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T14:38:06Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab04fb80581e6a07</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT2_KO</t>
   </si>
   <si>
@@ -3064,6 +3184,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-09T14:39:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39c2403e3680eeeb</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSCURAMENTO_CDA2_RSA_CT2_KO</t>
   </si>
   <si>
@@ -3072,6 +3198,12 @@
 ▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
 ▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
 Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T14:40:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73a017b094e3ad0d</t>
   </si>
   <si>
     <t xml:space="preserve">PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1</t>
@@ -3904,6 +4036,15 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09T15:38:40Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92a872f694985237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.9e9cff8e937832c2b7e25d37e14a20f2575d9df9e0a95f7fac9c0746c9384faa.2bd97168d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT0</t>
@@ -4218,7 +4359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4229,12 +4370,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -4356,7 +4491,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4497,16 +4632,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4534,7 +4661,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4562,14 +4689,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -4837,7 +4956,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5911,7 +6030,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7020,15 +7139,15 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E297" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A297" activeCellId="0" sqref="A297"/>
-      <selection pane="bottomRight" activeCell="E299" activeCellId="0" sqref="E299"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D232" activeCellId="0" sqref="D232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.86"/>
@@ -7584,7 +7703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>11</v>
       </c>
@@ -7622,7 +7741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="104.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>12</v>
       </c>
@@ -7660,7 +7779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="104.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>13</v>
       </c>
@@ -7698,7 +7817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="104.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>14</v>
       </c>
@@ -7736,7 +7855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>16</v>
       </c>
@@ -7770,7 +7889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>17</v>
       </c>
@@ -7804,7 +7923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>18</v>
       </c>
@@ -7838,7 +7957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="n">
         <v>19</v>
       </c>
@@ -7872,7 +7991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="n">
         <v>20</v>
       </c>
@@ -7906,7 +8025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
         <v>21</v>
       </c>
@@ -7940,7 +8059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>22</v>
       </c>
@@ -7974,7 +8093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>23</v>
       </c>
@@ -8008,7 +8127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>24</v>
       </c>
@@ -8042,7 +8161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
         <v>25</v>
       </c>
@@ -8076,7 +8195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>26</v>
       </c>
@@ -8110,7 +8229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
         <v>27</v>
       </c>
@@ -8144,7 +8263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="n">
         <v>28</v>
       </c>
@@ -8178,7 +8297,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>29</v>
       </c>
@@ -8212,7 +8331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>30</v>
       </c>
@@ -8246,7 +8365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>31</v>
       </c>
@@ -8284,7 +8403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="108.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>32</v>
       </c>
@@ -8322,7 +8441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>33</v>
       </c>
@@ -8356,7 +8475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>34</v>
       </c>
@@ -8390,7 +8509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>35</v>
       </c>
@@ -8424,7 +8543,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>36</v>
       </c>
@@ -8458,7 +8577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>37</v>
       </c>
@@ -8492,7 +8611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>38</v>
       </c>
@@ -8526,7 +8645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>39</v>
       </c>
@@ -8564,7 +8683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="116.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>40</v>
       </c>
@@ -8602,7 +8721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="n">
         <v>41</v>
       </c>
@@ -8636,7 +8755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="n">
         <v>42</v>
       </c>
@@ -8670,7 +8789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="n">
         <v>43</v>
       </c>
@@ -8704,7 +8823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="n">
         <v>44</v>
       </c>
@@ -8740,7 +8859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="n">
         <v>45</v>
       </c>
@@ -8776,7 +8895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>46</v>
       </c>
@@ -8812,7 +8931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>47</v>
       </c>
@@ -8836,11 +8955,21 @@
         <v>133</v>
       </c>
       <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
+      <c r="L54" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" s="35" t="s">
+        <v>138</v>
+      </c>
       <c r="Q54" s="30"/>
       <c r="R54" s="31" t="s">
         <v>133</v>
@@ -8850,7 +8979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="324" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>48</v>
       </c>
@@ -8861,7 +8990,7 @@
         <v>116</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>132</v>
@@ -8874,20 +9003,20 @@
         <v>133</v>
       </c>
       <c r="K55" s="30"/>
-      <c r="L55" s="35" t="s">
+      <c r="L55" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="M55" s="35" t="s">
+      <c r="M55" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="N55" s="36" t="s">
+      <c r="N55" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="O55" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="P55" s="36" t="s">
-        <v>139</v>
       </c>
       <c r="Q55" s="30"/>
       <c r="R55" s="31" t="s">
@@ -8898,7 +9027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="n">
         <v>49</v>
       </c>
@@ -8934,7 +9063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>50</v>
       </c>
@@ -8970,7 +9099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="n">
         <v>51</v>
       </c>
@@ -9006,7 +9135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="n">
         <v>52</v>
       </c>
@@ -9040,7 +9169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="n">
         <v>53</v>
       </c>
@@ -9074,7 +9203,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="n">
         <v>54</v>
       </c>
@@ -9108,7 +9237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="n">
         <v>55</v>
       </c>
@@ -9142,7 +9271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="n">
         <v>56</v>
       </c>
@@ -9176,7 +9305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="n">
         <v>57</v>
       </c>
@@ -9210,7 +9339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="25" t="n">
         <v>58</v>
       </c>
@@ -9244,7 +9373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="25" t="n">
         <v>59</v>
       </c>
@@ -9278,7 +9407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="n">
         <v>60</v>
       </c>
@@ -9312,7 +9441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="25" t="n">
         <v>61</v>
       </c>
@@ -9346,7 +9475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="n">
         <v>62</v>
       </c>
@@ -9380,7 +9509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="25" t="n">
         <v>63</v>
       </c>
@@ -9414,7 +9543,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="n">
         <v>64</v>
       </c>
@@ -9448,7 +9577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="n">
         <v>65</v>
       </c>
@@ -9482,7 +9611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="n">
         <v>66</v>
       </c>
@@ -9516,7 +9645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="25" t="n">
         <v>67</v>
       </c>
@@ -9550,7 +9679,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="n">
         <v>68</v>
       </c>
@@ -9584,7 +9713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="n">
         <v>69</v>
       </c>
@@ -9618,7 +9747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="n">
         <v>70</v>
       </c>
@@ -9652,7 +9781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="25" t="n">
         <v>71</v>
       </c>
@@ -9686,7 +9815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="n">
         <v>72</v>
       </c>
@@ -9720,7 +9849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="n">
         <v>73</v>
       </c>
@@ -9754,7 +9883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="n">
         <v>74</v>
       </c>
@@ -9788,7 +9917,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="25" t="n">
         <v>75</v>
       </c>
@@ -9826,7 +9955,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="n">
         <v>76</v>
       </c>
@@ -9864,7 +9993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="84.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="25" t="n">
         <v>77</v>
       </c>
@@ -9902,7 +10031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="n">
         <v>78</v>
       </c>
@@ -9940,7 +10069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="n">
         <v>79</v>
       </c>
@@ -9978,7 +10107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="n">
         <v>80</v>
       </c>
@@ -10016,7 +10145,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="n">
         <v>81</v>
       </c>
@@ -10054,7 +10183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="n">
         <v>82</v>
       </c>
@@ -10092,7 +10221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="n">
         <v>83</v>
       </c>
@@ -10130,7 +10259,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="25" t="n">
         <v>84</v>
       </c>
@@ -10168,7 +10297,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="25" t="n">
         <v>85</v>
       </c>
@@ -10206,7 +10335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="25" t="n">
         <v>86</v>
       </c>
@@ -10244,7 +10373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="n">
         <v>87</v>
       </c>
@@ -10282,7 +10411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="n">
         <v>88</v>
       </c>
@@ -10320,7 +10449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="25" t="n">
         <v>89</v>
       </c>
@@ -10358,7 +10487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="25" t="n">
         <v>90</v>
       </c>
@@ -10396,7 +10525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="n">
         <v>91</v>
       </c>
@@ -10434,7 +10563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="25" t="n">
         <v>92</v>
       </c>
@@ -10472,7 +10601,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="25" t="n">
         <v>93</v>
       </c>
@@ -10510,7 +10639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="25" t="n">
         <v>94</v>
       </c>
@@ -10544,7 +10673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="25" t="n">
         <v>95</v>
       </c>
@@ -10578,7 +10707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="25" t="n">
         <v>96</v>
       </c>
@@ -10612,7 +10741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="25" t="n">
         <v>97</v>
       </c>
@@ -10646,7 +10775,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="25" t="n">
         <v>98</v>
       </c>
@@ -10680,7 +10809,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="25" t="n">
         <v>99</v>
       </c>
@@ -10714,7 +10843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="n">
         <v>100</v>
       </c>
@@ -10748,7 +10877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="25" t="n">
         <v>101</v>
       </c>
@@ -10782,7 +10911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="n">
         <v>102</v>
       </c>
@@ -10816,7 +10945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="25" t="n">
         <v>103</v>
       </c>
@@ -10850,7 +10979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="n">
         <v>104</v>
       </c>
@@ -10884,7 +11013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="25" t="n">
         <v>105</v>
       </c>
@@ -10918,7 +11047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="25" t="n">
         <v>106</v>
       </c>
@@ -10952,7 +11081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="25" t="n">
         <v>107</v>
       </c>
@@ -10986,7 +11115,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="n">
         <v>108</v>
       </c>
@@ -11020,7 +11149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="25" t="n">
         <v>109</v>
       </c>
@@ -11054,7 +11183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="25" t="n">
         <v>110</v>
       </c>
@@ -11088,7 +11217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="25" t="n">
         <v>111</v>
       </c>
@@ -11122,7 +11251,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="25" t="n">
         <v>112</v>
       </c>
@@ -11156,7 +11285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="25" t="n">
         <v>113</v>
       </c>
@@ -11190,7 +11319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="25" t="n">
         <v>114</v>
       </c>
@@ -11224,7 +11353,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="n">
         <v>115</v>
       </c>
@@ -11258,7 +11387,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="n">
         <v>116</v>
       </c>
@@ -11292,7 +11421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="25" t="n">
         <v>117</v>
       </c>
@@ -11326,7 +11455,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="25" t="n">
         <v>118</v>
       </c>
@@ -11360,7 +11489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="25" t="n">
         <v>119</v>
       </c>
@@ -11394,7 +11523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="25" t="n">
         <v>120</v>
       </c>
@@ -11428,7 +11557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="25" t="n">
         <v>121</v>
       </c>
@@ -11462,7 +11591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="25" t="n">
         <v>122</v>
       </c>
@@ -11496,7 +11625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="25" t="n">
         <v>123</v>
       </c>
@@ -11530,7 +11659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="25" t="n">
         <v>124</v>
       </c>
@@ -11564,7 +11693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="25" t="n">
         <v>125</v>
       </c>
@@ -11598,7 +11727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="25" t="n">
         <v>126</v>
       </c>
@@ -11632,7 +11761,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="25" t="n">
         <v>127</v>
       </c>
@@ -11666,7 +11795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="25" t="n">
         <v>128</v>
       </c>
@@ -11700,7 +11829,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="25" t="n">
         <v>129</v>
       </c>
@@ -11734,7 +11863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="25" t="n">
         <v>130</v>
       </c>
@@ -11768,7 +11897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="25" t="n">
         <v>131</v>
       </c>
@@ -11802,7 +11931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="25" t="n">
         <v>132</v>
       </c>
@@ -11836,7 +11965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25" t="n">
         <v>133</v>
       </c>
@@ -11870,7 +11999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="25" t="n">
         <v>134</v>
       </c>
@@ -11904,7 +12033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="25" t="n">
         <v>135</v>
       </c>
@@ -11938,7 +12067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="25" t="n">
         <v>136</v>
       </c>
@@ -11972,7 +12101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="25" t="n">
         <v>137</v>
       </c>
@@ -12006,7 +12135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="n">
         <v>138</v>
       </c>
@@ -12040,7 +12169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="25" t="n">
         <v>139</v>
       </c>
@@ -12074,7 +12203,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="25" t="n">
         <v>140</v>
       </c>
@@ -12108,7 +12237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="25" t="n">
         <v>141</v>
       </c>
@@ -12142,7 +12271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="25" t="n">
         <v>142</v>
       </c>
@@ -12176,7 +12305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="25" t="n">
         <v>143</v>
       </c>
@@ -12210,7 +12339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="25" t="n">
         <v>144</v>
       </c>
@@ -12244,7 +12373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="25" t="n">
         <v>145</v>
       </c>
@@ -12278,7 +12407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="25" t="n">
         <v>146</v>
       </c>
@@ -12312,7 +12441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="25" t="n">
         <v>147</v>
       </c>
@@ -12350,7 +12479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25" t="n">
         <v>148</v>
       </c>
@@ -12388,7 +12517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="n">
         <v>149</v>
       </c>
@@ -12426,7 +12555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="116.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25" t="n">
         <v>150</v>
       </c>
@@ -12464,7 +12593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="n">
         <v>151</v>
       </c>
@@ -12502,7 +12631,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25" t="n">
         <v>152</v>
       </c>
@@ -12540,7 +12669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="n">
         <v>153</v>
       </c>
@@ -12578,7 +12707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25" t="n">
         <v>154</v>
       </c>
@@ -12616,7 +12745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="25" t="n">
         <v>155</v>
       </c>
@@ -12654,7 +12783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="25" t="n">
         <v>156</v>
       </c>
@@ -12692,7 +12821,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="n">
         <v>157</v>
       </c>
@@ -12730,7 +12859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25" t="n">
         <v>158</v>
       </c>
@@ -12768,7 +12897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="n">
         <v>159</v>
       </c>
@@ -12806,7 +12935,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="81.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="25" t="n">
         <v>160</v>
       </c>
@@ -12844,7 +12973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="96.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="n">
         <v>161</v>
       </c>
@@ -12882,7 +13011,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="25" t="n">
         <v>162</v>
       </c>
@@ -12920,7 +13049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="25" t="n">
         <v>163</v>
       </c>
@@ -12958,7 +13087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="25" t="n">
         <v>164</v>
       </c>
@@ -12996,7 +13125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="25" t="n">
         <v>165</v>
       </c>
@@ -13034,7 +13163,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="25" t="n">
         <v>166</v>
       </c>
@@ -13072,7 +13201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="93.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="n">
         <v>167</v>
       </c>
@@ -13110,7 +13239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="n">
         <v>168</v>
       </c>
@@ -13148,7 +13277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="25" t="n">
         <v>169</v>
       </c>
@@ -13186,7 +13315,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="25" t="n">
         <v>170</v>
       </c>
@@ -13220,7 +13349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="25" t="n">
         <v>171</v>
       </c>
@@ -13254,7 +13383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="25" t="n">
         <v>172</v>
       </c>
@@ -13288,7 +13417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="25" t="n">
         <v>173</v>
       </c>
@@ -13322,7 +13451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="25" t="n">
         <v>174</v>
       </c>
@@ -13356,7 +13485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="25" t="n">
         <v>175</v>
       </c>
@@ -13390,7 +13519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="n">
         <v>176</v>
       </c>
@@ -13424,7 +13553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="25" t="n">
         <v>177</v>
       </c>
@@ -13458,7 +13587,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="25" t="n">
         <v>178</v>
       </c>
@@ -13492,7 +13621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="25" t="n">
         <v>179</v>
       </c>
@@ -13526,7 +13655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25" t="n">
         <v>180</v>
       </c>
@@ -13560,7 +13689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="82.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="25" t="n">
         <v>181</v>
       </c>
@@ -13594,7 +13723,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="25" t="n">
         <v>182</v>
       </c>
@@ -13628,7 +13757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="25" t="n">
         <v>183</v>
       </c>
@@ -13662,7 +13791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="25" t="n">
         <v>184</v>
       </c>
@@ -13696,7 +13825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="25" t="n">
         <v>185</v>
       </c>
@@ -13730,7 +13859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="25" t="n">
         <v>186</v>
       </c>
@@ -13764,7 +13893,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="25" t="n">
         <v>187</v>
       </c>
@@ -13798,7 +13927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="25" t="n">
         <v>188</v>
       </c>
@@ -13832,7 +13961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="25" t="n">
         <v>189</v>
       </c>
@@ -13866,7 +13995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="25" t="n">
         <v>190</v>
       </c>
@@ -13900,7 +14029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="25" t="n">
         <v>191</v>
       </c>
@@ -13934,7 +14063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="25" t="n">
         <v>192</v>
       </c>
@@ -13968,7 +14097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="25" t="n">
         <v>193</v>
       </c>
@@ -14002,7 +14131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="25" t="n">
         <v>194</v>
       </c>
@@ -14036,7 +14165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="25" t="n">
         <v>195</v>
       </c>
@@ -14070,7 +14199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="25" t="n">
         <v>196</v>
       </c>
@@ -14104,7 +14233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="25" t="n">
         <v>197</v>
       </c>
@@ -14138,7 +14267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="25" t="n">
         <v>198</v>
       </c>
@@ -14172,7 +14301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="25" t="n">
         <v>199</v>
       </c>
@@ -14206,7 +14335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="25" t="n">
         <v>200</v>
       </c>
@@ -14240,7 +14369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="25" t="n">
         <v>201</v>
       </c>
@@ -14274,7 +14403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="25" t="n">
         <v>202</v>
       </c>
@@ -14308,7 +14437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="25" t="n">
         <v>203</v>
       </c>
@@ -14342,7 +14471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="25" t="n">
         <v>204</v>
       </c>
@@ -14376,7 +14505,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="25" t="n">
         <v>205</v>
       </c>
@@ -14410,7 +14539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="25" t="n">
         <v>206</v>
       </c>
@@ -14444,7 +14573,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25" t="n">
         <v>207</v>
       </c>
@@ -14478,7 +14607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="25" t="n">
         <v>208</v>
       </c>
@@ -14512,7 +14641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="25" t="n">
         <v>209</v>
       </c>
@@ -14546,7 +14675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="25" t="n">
         <v>210</v>
       </c>
@@ -14580,7 +14709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25" t="n">
         <v>211</v>
       </c>
@@ -14614,7 +14743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="25" t="n">
         <v>212</v>
       </c>
@@ -14648,7 +14777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="25" t="n">
         <v>213</v>
       </c>
@@ -14682,7 +14811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="n">
         <v>214</v>
       </c>
@@ -14716,7 +14845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="25" t="n">
         <v>215</v>
       </c>
@@ -14750,7 +14879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25" t="n">
         <v>216</v>
       </c>
@@ -14784,7 +14913,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="25" t="n">
         <v>217</v>
       </c>
@@ -14818,7 +14947,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="n">
         <v>218</v>
       </c>
@@ -14852,7 +14981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="25" t="n">
         <v>219</v>
       </c>
@@ -14886,7 +15015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25" t="n">
         <v>220</v>
       </c>
@@ -14920,7 +15049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="25" t="n">
         <v>221</v>
       </c>
@@ -14954,7 +15083,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="n">
         <v>222</v>
       </c>
@@ -14988,7 +15117,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="25" t="n">
         <v>223</v>
       </c>
@@ -15022,7 +15151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25" t="n">
         <v>224</v>
       </c>
@@ -15038,10 +15167,18 @@
       <c r="E231" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="F231" s="28"/>
-      <c r="G231" s="29"/>
-      <c r="H231" s="29"/>
-      <c r="I231" s="29"/>
+      <c r="F231" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G231" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="H231" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="I231" s="29" t="s">
+        <v>515</v>
+      </c>
       <c r="J231" s="30" t="s">
         <v>133</v>
       </c>
@@ -15058,7 +15195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="192.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="25" t="n">
         <v>225</v>
       </c>
@@ -15069,15 +15206,23 @@
         <v>70</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="F232" s="28"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
+        <v>517</v>
+      </c>
+      <c r="F232" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G232" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="H232" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="I232" s="29" t="s">
+        <v>520</v>
+      </c>
       <c r="J232" s="30" t="s">
         <v>133</v>
       </c>
@@ -15094,7 +15239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="n">
         <v>226</v>
       </c>
@@ -15105,15 +15250,23 @@
         <v>70</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="F233" s="28"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
+        <v>522</v>
+      </c>
+      <c r="F233" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G233" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="H233" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="I233" s="29" t="s">
+        <v>525</v>
+      </c>
       <c r="J233" s="30" t="s">
         <v>133</v>
       </c>
@@ -15130,7 +15283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="25" t="n">
         <v>227</v>
       </c>
@@ -15141,15 +15294,23 @@
         <v>70</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F234" s="28"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
+        <v>527</v>
+      </c>
+      <c r="F234" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G234" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="H234" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="I234" s="29" t="s">
+        <v>530</v>
+      </c>
       <c r="J234" s="30" t="s">
         <v>133</v>
       </c>
@@ -15166,7 +15327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="173.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
         <v>228</v>
       </c>
@@ -15177,15 +15338,23 @@
         <v>70</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="F235" s="28"/>
-      <c r="G235" s="29"/>
-      <c r="H235" s="29"/>
-      <c r="I235" s="29"/>
+        <v>532</v>
+      </c>
+      <c r="F235" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G235" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H235" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="I235" s="29" t="s">
+        <v>535</v>
+      </c>
       <c r="J235" s="30" t="s">
         <v>133</v>
       </c>
@@ -15202,7 +15371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25" t="n">
         <v>229</v>
       </c>
@@ -15213,14 +15382,20 @@
         <v>70</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="F236" s="28"/>
-      <c r="G236" s="29"/>
-      <c r="H236" s="29"/>
+        <v>537</v>
+      </c>
+      <c r="F236" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G236" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="H236" s="29" t="s">
+        <v>539</v>
+      </c>
       <c r="I236" s="29"/>
       <c r="J236" s="30" t="s">
         <v>133</v>
@@ -15238,7 +15413,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="25" t="n">
         <v>230</v>
       </c>
@@ -15249,10 +15424,10 @@
         <v>70</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="F237" s="28"/>
       <c r="G237" s="29"/>
@@ -15262,7 +15437,7 @@
         <v>73</v>
       </c>
       <c r="K237" s="30" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="L237" s="30"/>
       <c r="M237" s="30"/>
@@ -15276,7 +15451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="25" t="n">
         <v>231</v>
       </c>
@@ -15287,15 +15462,23 @@
         <v>70</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="F238" s="28"/>
-      <c r="G238" s="29"/>
-      <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
+        <v>544</v>
+      </c>
+      <c r="F238" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G238" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="H238" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="I238" s="29" t="s">
+        <v>547</v>
+      </c>
       <c r="J238" s="30" t="s">
         <v>133</v>
       </c>
@@ -15312,7 +15495,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="150.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="25" t="n">
         <v>232</v>
       </c>
@@ -15323,10 +15506,10 @@
         <v>70</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
@@ -15336,7 +15519,7 @@
         <v>73</v>
       </c>
       <c r="K239" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L239" s="30"/>
       <c r="M239" s="30"/>
@@ -15350,7 +15533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="143.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="n">
         <v>233</v>
       </c>
@@ -15361,10 +15544,10 @@
         <v>70</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="F240" s="28"/>
       <c r="G240" s="29"/>
@@ -15374,7 +15557,7 @@
         <v>73</v>
       </c>
       <c r="K240" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
@@ -15388,7 +15571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="150.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="25" t="n">
         <v>234</v>
       </c>
@@ -15399,10 +15582,10 @@
         <v>70</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="F241" s="28"/>
       <c r="G241" s="29"/>
@@ -15412,7 +15595,7 @@
         <v>73</v>
       </c>
       <c r="K241" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L241" s="30"/>
       <c r="M241" s="30"/>
@@ -15426,7 +15609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="150.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="25" t="n">
         <v>235</v>
       </c>
@@ -15437,10 +15620,10 @@
         <v>70</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
@@ -15450,7 +15633,7 @@
         <v>73</v>
       </c>
       <c r="K242" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -15464,7 +15647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="25" t="n">
         <v>236</v>
       </c>
@@ -15475,14 +15658,20 @@
         <v>70</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="E243" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="F243" s="28"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
+      <c r="F243" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G243" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="H243" s="29" t="s">
+        <v>559</v>
+      </c>
       <c r="I243" s="29"/>
       <c r="J243" s="30" t="s">
         <v>133</v>
@@ -15500,7 +15689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="n">
         <v>237</v>
       </c>
@@ -15511,14 +15700,20 @@
         <v>70</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="F244" s="28"/>
-      <c r="G244" s="29"/>
-      <c r="H244" s="29"/>
+        <v>561</v>
+      </c>
+      <c r="F244" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G244" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="H244" s="29" t="s">
+        <v>563</v>
+      </c>
       <c r="I244" s="29"/>
       <c r="J244" s="30" t="s">
         <v>133</v>
@@ -15536,7 +15731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="173.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="25" t="n">
         <v>238</v>
       </c>
@@ -15547,14 +15742,20 @@
         <v>70</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="F245" s="28"/>
-      <c r="G245" s="29"/>
-      <c r="H245" s="29"/>
+        <v>565</v>
+      </c>
+      <c r="F245" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G245" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H245" s="29" t="s">
+        <v>567</v>
+      </c>
       <c r="I245" s="29"/>
       <c r="J245" s="30" t="s">
         <v>133</v>
@@ -15572,7 +15773,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="25" t="n">
         <v>239</v>
       </c>
@@ -15583,14 +15784,20 @@
         <v>70</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="F246" s="28"/>
-      <c r="G246" s="29"/>
-      <c r="H246" s="29"/>
+        <v>569</v>
+      </c>
+      <c r="F246" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G246" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="H246" s="29" t="s">
+        <v>571</v>
+      </c>
       <c r="I246" s="29"/>
       <c r="J246" s="30" t="s">
         <v>133</v>
@@ -15608,7 +15815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="25" t="n">
         <v>240</v>
       </c>
@@ -15619,10 +15826,10 @@
         <v>81</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
@@ -15642,7 +15849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="209" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="203.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25" t="n">
         <v>241</v>
       </c>
@@ -15653,10 +15860,10 @@
         <v>81</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="F248" s="28"/>
       <c r="G248" s="29"/>
@@ -15676,7 +15883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="25" t="n">
         <v>242</v>
       </c>
@@ -15687,10 +15894,10 @@
         <v>81</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="F249" s="28"/>
       <c r="G249" s="29"/>
@@ -15710,7 +15917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="25" t="n">
         <v>243</v>
       </c>
@@ -15721,10 +15928,10 @@
         <v>81</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="F250" s="28"/>
       <c r="G250" s="29"/>
@@ -15744,7 +15951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="25" t="n">
         <v>244</v>
       </c>
@@ -15755,10 +15962,10 @@
         <v>81</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
@@ -15778,7 +15985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="25" t="n">
         <v>245</v>
       </c>
@@ -15789,10 +15996,10 @@
         <v>81</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="29"/>
@@ -15812,7 +16019,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="25" t="n">
         <v>246</v>
       </c>
@@ -15823,10 +16030,10 @@
         <v>81</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="F253" s="28"/>
       <c r="G253" s="29"/>
@@ -15846,7 +16053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="25" t="n">
         <v>247</v>
       </c>
@@ -15857,10 +16064,10 @@
         <v>81</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
@@ -15880,7 +16087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25" t="n">
         <v>248</v>
       </c>
@@ -15891,10 +16098,10 @@
         <v>81</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
@@ -15914,7 +16121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="25" t="n">
         <v>249</v>
       </c>
@@ -15925,10 +16132,10 @@
         <v>81</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="29"/>
@@ -15948,7 +16155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="25" t="n">
         <v>250</v>
       </c>
@@ -15959,10 +16166,10 @@
         <v>81</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="F257" s="28"/>
       <c r="G257" s="29"/>
@@ -15982,7 +16189,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="25" t="n">
         <v>251</v>
       </c>
@@ -15993,10 +16200,10 @@
         <v>81</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="E258" s="27" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="29"/>
@@ -16016,7 +16223,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="n">
         <v>252</v>
       </c>
@@ -16027,7 +16234,7 @@
         <v>81</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E259" s="27" t="s">
         <v>473</v>
@@ -16050,7 +16257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="25" t="n">
         <v>253</v>
       </c>
@@ -16061,10 +16268,10 @@
         <v>81</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="E260" s="27" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="F260" s="28"/>
       <c r="G260" s="29"/>
@@ -16084,7 +16291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="25" t="n">
         <v>254</v>
       </c>
@@ -16095,10 +16302,10 @@
         <v>81</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="E261" s="27" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="F261" s="28"/>
       <c r="G261" s="29"/>
@@ -16118,7 +16325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="25" t="n">
         <v>255</v>
       </c>
@@ -16129,10 +16336,10 @@
         <v>81</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="F262" s="28"/>
       <c r="G262" s="29"/>
@@ -16152,7 +16359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25" t="n">
         <v>256</v>
       </c>
@@ -16163,10 +16370,10 @@
         <v>90</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="F263" s="28"/>
       <c r="G263" s="29"/>
@@ -16186,7 +16393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="209" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="203.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="25" t="n">
         <v>257</v>
       </c>
@@ -16197,10 +16404,10 @@
         <v>90</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="F264" s="28"/>
       <c r="G264" s="29"/>
@@ -16220,7 +16427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="25" t="n">
         <v>258</v>
       </c>
@@ -16231,10 +16438,10 @@
         <v>90</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F265" s="28"/>
       <c r="G265" s="29"/>
@@ -16254,7 +16461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="25" t="n">
         <v>259</v>
       </c>
@@ -16265,10 +16472,10 @@
         <v>90</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="29"/>
@@ -16288,7 +16495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25" t="n">
         <v>260</v>
       </c>
@@ -16299,10 +16506,10 @@
         <v>90</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="F267" s="28"/>
       <c r="G267" s="29"/>
@@ -16322,7 +16529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="25" t="n">
         <v>261</v>
       </c>
@@ -16333,10 +16540,10 @@
         <v>90</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F268" s="28"/>
       <c r="G268" s="29"/>
@@ -16356,7 +16563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="25" t="n">
         <v>262</v>
       </c>
@@ -16367,10 +16574,10 @@
         <v>90</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="F269" s="28"/>
       <c r="G269" s="29"/>
@@ -16390,7 +16597,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="25" t="n">
         <v>263</v>
       </c>
@@ -16401,10 +16608,10 @@
         <v>90</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="29"/>
@@ -16424,7 +16631,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25" t="n">
         <v>264</v>
       </c>
@@ -16435,10 +16642,10 @@
         <v>90</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="29"/>
@@ -16458,7 +16665,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="25" t="n">
         <v>265</v>
       </c>
@@ -16469,10 +16676,10 @@
         <v>90</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="E272" s="27" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="29"/>
@@ -16492,7 +16699,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="25" t="n">
         <v>266</v>
       </c>
@@ -16503,10 +16710,10 @@
         <v>90</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="E273" s="27" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="F273" s="28"/>
       <c r="G273" s="29"/>
@@ -16526,7 +16733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="25" t="n">
         <v>267</v>
       </c>
@@ -16537,10 +16744,10 @@
         <v>90</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="E274" s="27" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="F274" s="28"/>
       <c r="G274" s="29"/>
@@ -16560,7 +16767,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="25" t="n">
         <v>268</v>
       </c>
@@ -16571,7 +16778,7 @@
         <v>90</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="E275" s="27" t="s">
         <v>473</v>
@@ -16594,7 +16801,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="25" t="n">
         <v>269</v>
       </c>
@@ -16605,10 +16812,10 @@
         <v>90</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="F276" s="28"/>
       <c r="G276" s="29"/>
@@ -16628,7 +16835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="25" t="n">
         <v>270</v>
       </c>
@@ -16639,10 +16846,10 @@
         <v>90</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="E277" s="27" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="29"/>
@@ -16662,7 +16869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="25" t="n">
         <v>271</v>
       </c>
@@ -16673,10 +16880,10 @@
         <v>90</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="E278" s="27" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="F278" s="28"/>
       <c r="G278" s="29"/>
@@ -16696,7 +16903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="25" t="n">
         <v>272</v>
       </c>
@@ -16707,10 +16914,10 @@
         <v>99</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="E279" s="27" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
@@ -16730,7 +16937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="25" t="n">
         <v>273</v>
       </c>
@@ -16741,10 +16948,10 @@
         <v>99</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="E280" s="27" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
@@ -16764,7 +16971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="25" t="n">
         <v>274</v>
       </c>
@@ -16775,10 +16982,10 @@
         <v>99</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="E281" s="27" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="29"/>
@@ -16798,7 +17005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="25" t="n">
         <v>275</v>
       </c>
@@ -16809,10 +17016,10 @@
         <v>99</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="E282" s="27" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="29"/>
@@ -16832,7 +17039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25" t="n">
         <v>276</v>
       </c>
@@ -16843,10 +17050,10 @@
         <v>99</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="E283" s="27" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="F283" s="28"/>
       <c r="G283" s="29"/>
@@ -16866,7 +17073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="25" t="n">
         <v>277</v>
       </c>
@@ -16877,10 +17084,10 @@
         <v>99</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="F284" s="28"/>
       <c r="G284" s="29"/>
@@ -16900,7 +17107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="25" t="n">
         <v>278</v>
       </c>
@@ -16911,10 +17118,10 @@
         <v>99</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="29"/>
@@ -16934,7 +17141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="25" t="n">
         <v>279</v>
       </c>
@@ -16945,10 +17152,10 @@
         <v>99</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="E286" s="27" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F286" s="28"/>
       <c r="G286" s="29"/>
@@ -16968,7 +17175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25" t="n">
         <v>280</v>
       </c>
@@ -16979,10 +17186,10 @@
         <v>99</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="E287" s="27" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="29"/>
@@ -17002,7 +17209,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="25" t="n">
         <v>281</v>
       </c>
@@ -17013,10 +17220,10 @@
         <v>99</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="F288" s="28"/>
       <c r="G288" s="29"/>
@@ -17036,7 +17243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="25" t="n">
         <v>282</v>
       </c>
@@ -17047,10 +17254,10 @@
         <v>99</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F289" s="28"/>
       <c r="G289" s="29"/>
@@ -17070,7 +17277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="25" t="n">
         <v>283</v>
       </c>
@@ -17081,10 +17288,10 @@
         <v>99</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="F290" s="28"/>
       <c r="G290" s="29"/>
@@ -17104,7 +17311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="25" t="n">
         <v>284</v>
       </c>
@@ -17115,7 +17322,7 @@
         <v>99</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E291" s="27" t="s">
         <v>473</v>
@@ -17138,7 +17345,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="25" t="n">
         <v>285</v>
       </c>
@@ -17149,10 +17356,10 @@
         <v>99</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="E292" s="27" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F292" s="28"/>
       <c r="G292" s="29"/>
@@ -17172,7 +17379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="25" t="n">
         <v>286</v>
       </c>
@@ -17183,10 +17390,10 @@
         <v>99</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="E293" s="27" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="F293" s="28"/>
       <c r="G293" s="29"/>
@@ -17206,7 +17413,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="25" t="n">
         <v>287</v>
       </c>
@@ -17217,10 +17424,10 @@
         <v>99</v>
       </c>
       <c r="D294" s="26" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="E294" s="27" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="F294" s="28"/>
       <c r="G294" s="29"/>
@@ -17240,7 +17447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="n">
         <v>288</v>
       </c>
@@ -17251,22 +17458,22 @@
         <v>116</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="E295" s="27" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="F295" s="28" t="n">
         <v>45508</v>
       </c>
       <c r="G295" s="29" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="H295" s="29" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="I295" s="29" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="J295" s="30" t="s">
         <v>133</v>
@@ -17284,7 +17491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="197.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25" t="n">
         <v>289</v>
       </c>
@@ -17295,17 +17502,23 @@
         <v>116</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="E296" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="F296" s="37" t="n">
+        <v>671</v>
+      </c>
+      <c r="F296" s="28" t="n">
         <v>45508</v>
       </c>
-      <c r="G296" s="29"/>
-      <c r="H296" s="29"/>
-      <c r="I296" s="29"/>
+      <c r="G296" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="H296" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I296" s="29" t="s">
+        <v>674</v>
+      </c>
       <c r="J296" s="30" t="s">
         <v>133</v>
       </c>
@@ -17322,7 +17535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="174.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="25" t="n">
         <v>290</v>
       </c>
@@ -17333,22 +17546,22 @@
         <v>116</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="E297" s="27" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="F297" s="28" t="n">
         <v>45508</v>
       </c>
       <c r="G297" s="29" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="I297" s="29" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="J297" s="30" t="s">
         <v>133</v>
@@ -17366,7 +17579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="104.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25" t="n">
         <v>291</v>
       </c>
@@ -17377,22 +17590,22 @@
         <v>116</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="E298" s="27" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="F298" s="28" t="n">
         <v>45508</v>
       </c>
       <c r="G298" s="29" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="H298" s="29" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="I298" s="29" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="J298" s="30" t="s">
         <v>133</v>
@@ -17410,7 +17623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="173.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="n">
         <v>292</v>
       </c>
@@ -17421,22 +17634,22 @@
         <v>116</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="E299" s="27" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="F299" s="28" t="n">
         <v>45508</v>
       </c>
       <c r="G299" s="29" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="H299" s="29" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="I299" s="29" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="J299" s="30" t="s">
         <v>133</v>
@@ -17454,7 +17667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="128.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="25" t="n">
         <v>293</v>
       </c>
@@ -17465,14 +17678,20 @@
         <v>116</v>
       </c>
       <c r="D300" s="26" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="E300" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="F300" s="28"/>
-      <c r="G300" s="29"/>
-      <c r="H300" s="29"/>
+        <v>691</v>
+      </c>
+      <c r="F300" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G300" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="H300" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="I300" s="29"/>
       <c r="J300" s="30" t="s">
         <v>133</v>
@@ -17490,7 +17709,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="25" t="n">
         <v>294</v>
       </c>
@@ -17501,10 +17720,10 @@
         <v>116</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="E301" s="27" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
@@ -17514,7 +17733,7 @@
         <v>73</v>
       </c>
       <c r="K301" s="30" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="L301" s="30"/>
       <c r="M301" s="30"/>
@@ -17528,7 +17747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="25" t="n">
         <v>295</v>
       </c>
@@ -17539,15 +17758,23 @@
         <v>116</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="E302" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="F302" s="28"/>
-      <c r="G302" s="29"/>
-      <c r="H302" s="29"/>
-      <c r="I302" s="29"/>
+        <v>697</v>
+      </c>
+      <c r="F302" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G302" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="H302" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="I302" s="29" t="s">
+        <v>700</v>
+      </c>
       <c r="J302" s="30" t="s">
         <v>133</v>
       </c>
@@ -17564,7 +17791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="155.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="25" t="n">
         <v>296</v>
       </c>
@@ -17575,10 +17802,10 @@
         <v>116</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
@@ -17588,7 +17815,7 @@
         <v>73</v>
       </c>
       <c r="K303" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L303" s="30"/>
       <c r="M303" s="30"/>
@@ -17602,7 +17829,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="143.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="25" t="n">
         <v>297</v>
       </c>
@@ -17613,10 +17840,10 @@
         <v>116</v>
       </c>
       <c r="D304" s="26" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
@@ -17626,7 +17853,7 @@
         <v>73</v>
       </c>
       <c r="K304" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L304" s="30"/>
       <c r="M304" s="30"/>
@@ -17640,7 +17867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="150.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="n">
         <v>298</v>
       </c>
@@ -17651,10 +17878,10 @@
         <v>116</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
@@ -17664,7 +17891,7 @@
         <v>73</v>
       </c>
       <c r="K305" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L305" s="30"/>
       <c r="M305" s="30"/>
@@ -17678,7 +17905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="155.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="25" t="n">
         <v>299</v>
       </c>
@@ -17689,10 +17916,10 @@
         <v>116</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
@@ -17702,7 +17929,7 @@
         <v>73</v>
       </c>
       <c r="K306" s="30" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="L306" s="30"/>
       <c r="M306" s="30"/>
@@ -17716,7 +17943,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="25" t="n">
         <v>300</v>
       </c>
@@ -17727,14 +17954,20 @@
         <v>116</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="E307" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="F307" s="28"/>
-      <c r="G307" s="29"/>
-      <c r="H307" s="29"/>
+      <c r="F307" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G307" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="H307" s="29" t="s">
+        <v>711</v>
+      </c>
       <c r="I307" s="29"/>
       <c r="J307" s="30" t="s">
         <v>133</v>
@@ -17752,7 +17985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="25" t="n">
         <v>301</v>
       </c>
@@ -17763,14 +17996,20 @@
         <v>116</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>674</v>
+        <v>712</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="F308" s="28"/>
-      <c r="G308" s="29"/>
-      <c r="H308" s="29"/>
+        <v>713</v>
+      </c>
+      <c r="F308" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G308" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="H308" s="29" t="s">
+        <v>715</v>
+      </c>
       <c r="I308" s="29"/>
       <c r="J308" s="30" t="s">
         <v>133</v>
@@ -17788,7 +18027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="174.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="25" t="n">
         <v>302</v>
       </c>
@@ -17799,14 +18038,20 @@
         <v>116</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="E309" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="F309" s="28"/>
-      <c r="G309" s="29"/>
-      <c r="H309" s="29"/>
+        <v>717</v>
+      </c>
+      <c r="F309" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G309" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="H309" s="29" t="s">
+        <v>719</v>
+      </c>
       <c r="I309" s="29"/>
       <c r="J309" s="30" t="s">
         <v>133</v>
@@ -17824,7 +18069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="25" t="n">
         <v>303</v>
       </c>
@@ -17835,14 +18080,20 @@
         <v>116</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>678</v>
+        <v>720</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="F310" s="28"/>
-      <c r="G310" s="29"/>
-      <c r="H310" s="29"/>
+        <v>721</v>
+      </c>
+      <c r="F310" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G310" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="H310" s="29" t="s">
+        <v>723</v>
+      </c>
       <c r="I310" s="29"/>
       <c r="J310" s="30" t="s">
         <v>133</v>
@@ -17860,7 +18111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="25" t="n">
         <v>304</v>
       </c>
@@ -17871,10 +18122,10 @@
         <v>112</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
@@ -17894,7 +18145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="25" t="n">
         <v>305</v>
       </c>
@@ -17905,10 +18156,10 @@
         <v>112</v>
       </c>
       <c r="D312" s="26" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
@@ -17928,7 +18179,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="25" t="n">
         <v>306</v>
       </c>
@@ -17939,10 +18190,10 @@
         <v>112</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
@@ -17962,7 +18213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="25" t="n">
         <v>307</v>
       </c>
@@ -17973,10 +18224,10 @@
         <v>112</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
@@ -17996,7 +18247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="25" t="n">
         <v>308</v>
       </c>
@@ -18007,10 +18258,10 @@
         <v>112</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>689</v>
+        <v>733</v>
       </c>
       <c r="F315" s="28"/>
       <c r="G315" s="29"/>
@@ -18030,7 +18281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="128.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25" t="n">
         <v>309</v>
       </c>
@@ -18041,10 +18292,10 @@
         <v>112</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>690</v>
+        <v>734</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>691</v>
+        <v>735</v>
       </c>
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
@@ -18064,7 +18315,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="25" t="n">
         <v>310</v>
       </c>
@@ -18075,10 +18326,10 @@
         <v>112</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>692</v>
+        <v>736</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>693</v>
+        <v>737</v>
       </c>
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
@@ -18098,7 +18349,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="25" t="n">
         <v>311</v>
       </c>
@@ -18109,10 +18360,10 @@
         <v>112</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
@@ -18132,7 +18383,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="25" t="n">
         <v>312</v>
       </c>
@@ -18143,10 +18394,10 @@
         <v>112</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
@@ -18166,7 +18417,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="140" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25" t="n">
         <v>313</v>
       </c>
@@ -18177,10 +18428,10 @@
         <v>112</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
@@ -18200,7 +18451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="25" t="n">
         <v>314</v>
       </c>
@@ -18211,10 +18462,10 @@
         <v>112</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>700</v>
+        <v>744</v>
       </c>
       <c r="E321" s="27" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
       <c r="F321" s="28"/>
       <c r="G321" s="29"/>
@@ -18234,7 +18485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="151.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="25" t="n">
         <v>315</v>
       </c>
@@ -18245,10 +18496,10 @@
         <v>112</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="E322" s="27" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="F322" s="28"/>
       <c r="G322" s="29"/>
@@ -18268,7 +18519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="94" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="25" t="n">
         <v>316</v>
       </c>
@@ -18279,7 +18530,7 @@
         <v>112</v>
       </c>
       <c r="D323" s="26" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="E323" s="27" t="s">
         <v>473</v>
@@ -18302,7 +18553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="25" t="n">
         <v>317</v>
       </c>
@@ -18313,10 +18564,10 @@
         <v>112</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="E324" s="27" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
@@ -18336,7 +18587,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="25" t="n">
         <v>318</v>
       </c>
@@ -18347,10 +18598,10 @@
         <v>112</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="E325" s="27" t="s">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
@@ -18370,7 +18621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25" t="n">
         <v>319</v>
       </c>
@@ -18381,10 +18632,10 @@
         <v>112</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>709</v>
+        <v>753</v>
       </c>
       <c r="E326" s="27" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="F326" s="28"/>
       <c r="G326" s="29"/>
@@ -18404,7 +18655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="25" t="n">
         <v>320</v>
       </c>
@@ -18415,10 +18666,10 @@
         <v>49</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="E327" s="27" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
@@ -18438,7 +18689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="25" t="n">
         <v>321</v>
       </c>
@@ -18449,10 +18700,10 @@
         <v>49</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="E328" s="27" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="F328" s="28"/>
       <c r="G328" s="29"/>
@@ -18472,7 +18723,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="25" t="n">
         <v>322</v>
       </c>
@@ -18483,10 +18734,10 @@
         <v>49</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="F329" s="28"/>
       <c r="G329" s="29"/>
@@ -18506,7 +18757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25" t="n">
         <v>323</v>
       </c>
@@ -18517,10 +18768,10 @@
         <v>49</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
@@ -18540,7 +18791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="25" t="n">
         <v>324</v>
       </c>
@@ -18551,10 +18802,10 @@
         <v>61</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>720</v>
+        <v>764</v>
       </c>
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
@@ -18574,7 +18825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="25" t="n">
         <v>325</v>
       </c>
@@ -18585,10 +18836,10 @@
         <v>61</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="F332" s="28"/>
       <c r="G332" s="29"/>
@@ -18608,7 +18859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="25" t="n">
         <v>326</v>
       </c>
@@ -18619,10 +18870,10 @@
         <v>61</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>724</v>
+        <v>768</v>
       </c>
       <c r="F333" s="28"/>
       <c r="G333" s="29"/>
@@ -18642,7 +18893,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="25" t="n">
         <v>327</v>
       </c>
@@ -18653,10 +18904,10 @@
         <v>61</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>725</v>
+        <v>769</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>726</v>
+        <v>770</v>
       </c>
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
@@ -18676,7 +18927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="197.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="25" t="n">
         <v>328</v>
       </c>
@@ -18687,10 +18938,10 @@
         <v>70</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>727</v>
+        <v>771</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="F335" s="28"/>
       <c r="G335" s="29"/>
@@ -18700,7 +18951,7 @@
         <v>73</v>
       </c>
       <c r="K335" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L335" s="30"/>
       <c r="M335" s="30"/>
@@ -18714,7 +18965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="n">
         <v>329</v>
       </c>
@@ -18725,10 +18976,10 @@
         <v>70</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>731</v>
+        <v>775</v>
       </c>
       <c r="F336" s="28"/>
       <c r="G336" s="29"/>
@@ -18738,7 +18989,7 @@
         <v>73</v>
       </c>
       <c r="K336" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L336" s="30"/>
       <c r="M336" s="30"/>
@@ -18752,7 +19003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="191.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="25" t="n">
         <v>330</v>
       </c>
@@ -18763,10 +19014,10 @@
         <v>70</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>733</v>
+        <v>777</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>734</v>
+        <v>778</v>
       </c>
       <c r="F337" s="28"/>
       <c r="G337" s="29"/>
@@ -18776,7 +19027,7 @@
         <v>73</v>
       </c>
       <c r="K337" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L337" s="30"/>
       <c r="M337" s="30"/>
@@ -18790,7 +19041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="25" t="n">
         <v>331</v>
       </c>
@@ -18801,10 +19052,10 @@
         <v>70</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>736</v>
+        <v>780</v>
       </c>
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
@@ -18814,7 +19065,7 @@
         <v>73</v>
       </c>
       <c r="K338" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L338" s="30"/>
       <c r="M338" s="30"/>
@@ -18828,7 +19079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="209" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="203.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="25" t="n">
         <v>332</v>
       </c>
@@ -18839,10 +19090,10 @@
         <v>81</v>
       </c>
       <c r="D339" s="26" t="s">
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
@@ -18862,7 +19113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="25" t="n">
         <v>333</v>
       </c>
@@ -18873,10 +19124,10 @@
         <v>81</v>
       </c>
       <c r="D340" s="26" t="s">
-        <v>739</v>
+        <v>783</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="F340" s="28"/>
       <c r="G340" s="29"/>
@@ -18896,7 +19147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="25" t="n">
         <v>334</v>
       </c>
@@ -18907,10 +19158,10 @@
         <v>81</v>
       </c>
       <c r="D341" s="26" t="s">
-        <v>741</v>
+        <v>785</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="F341" s="28"/>
       <c r="G341" s="29"/>
@@ -18930,7 +19181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="25" t="n">
         <v>335</v>
       </c>
@@ -18941,10 +19192,10 @@
         <v>81</v>
       </c>
       <c r="D342" s="26" t="s">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="F342" s="28"/>
       <c r="G342" s="29"/>
@@ -18964,7 +19215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="209" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="203.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="25" t="n">
         <v>336</v>
       </c>
@@ -18975,10 +19226,10 @@
         <v>90</v>
       </c>
       <c r="D343" s="26" t="s">
-        <v>745</v>
+        <v>789</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>746</v>
+        <v>790</v>
       </c>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
@@ -18998,7 +19249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="25" t="n">
         <v>337</v>
       </c>
@@ -19009,10 +19260,10 @@
         <v>90</v>
       </c>
       <c r="D344" s="26" t="s">
-        <v>747</v>
+        <v>791</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="F344" s="28"/>
       <c r="G344" s="29"/>
@@ -19032,7 +19283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25" t="n">
         <v>338</v>
       </c>
@@ -19043,10 +19294,10 @@
         <v>90</v>
       </c>
       <c r="D345" s="26" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="E345" s="27" t="s">
-        <v>750</v>
+        <v>794</v>
       </c>
       <c r="F345" s="28"/>
       <c r="G345" s="29"/>
@@ -19066,7 +19317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="25" t="n">
         <v>339</v>
       </c>
@@ -19077,10 +19328,10 @@
         <v>90</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>751</v>
+        <v>795</v>
       </c>
       <c r="E346" s="27" t="s">
-        <v>752</v>
+        <v>796</v>
       </c>
       <c r="F346" s="28"/>
       <c r="G346" s="29"/>
@@ -19100,7 +19351,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="25" t="n">
         <v>340</v>
       </c>
@@ -19111,10 +19362,10 @@
         <v>99</v>
       </c>
       <c r="D347" s="26" t="s">
-        <v>753</v>
+        <v>797</v>
       </c>
       <c r="E347" s="27" t="s">
-        <v>754</v>
+        <v>798</v>
       </c>
       <c r="F347" s="28"/>
       <c r="G347" s="29"/>
@@ -19134,7 +19385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="25" t="n">
         <v>341</v>
       </c>
@@ -19145,10 +19396,10 @@
         <v>99</v>
       </c>
       <c r="D348" s="26" t="s">
-        <v>755</v>
+        <v>799</v>
       </c>
       <c r="E348" s="27" t="s">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
@@ -19168,7 +19419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25" t="n">
         <v>342</v>
       </c>
@@ -19179,10 +19430,10 @@
         <v>99</v>
       </c>
       <c r="D349" s="26" t="s">
-        <v>757</v>
+        <v>801</v>
       </c>
       <c r="E349" s="27" t="s">
-        <v>758</v>
+        <v>802</v>
       </c>
       <c r="F349" s="28"/>
       <c r="G349" s="29"/>
@@ -19202,7 +19453,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="25" t="n">
         <v>343</v>
       </c>
@@ -19213,10 +19464,10 @@
         <v>99</v>
       </c>
       <c r="D350" s="26" t="s">
-        <v>759</v>
+        <v>803</v>
       </c>
       <c r="E350" s="27" t="s">
-        <v>760</v>
+        <v>804</v>
       </c>
       <c r="F350" s="28"/>
       <c r="G350" s="29"/>
@@ -19236,7 +19487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="203.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="25" t="n">
         <v>344</v>
       </c>
@@ -19247,10 +19498,10 @@
         <v>116</v>
       </c>
       <c r="D351" s="26" t="s">
-        <v>761</v>
+        <v>805</v>
       </c>
       <c r="E351" s="27" t="s">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
@@ -19260,7 +19511,7 @@
         <v>73</v>
       </c>
       <c r="K351" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L351" s="30"/>
       <c r="M351" s="30"/>
@@ -19274,7 +19525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="25" t="n">
         <v>345</v>
       </c>
@@ -19285,10 +19536,10 @@
         <v>116</v>
       </c>
       <c r="D352" s="26" t="s">
-        <v>763</v>
+        <v>807</v>
       </c>
       <c r="E352" s="27" t="s">
-        <v>764</v>
+        <v>808</v>
       </c>
       <c r="F352" s="28"/>
       <c r="G352" s="29"/>
@@ -19298,7 +19549,7 @@
         <v>73</v>
       </c>
       <c r="K352" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L352" s="30"/>
       <c r="M352" s="30"/>
@@ -19312,7 +19563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="179.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="n">
         <v>346</v>
       </c>
@@ -19323,10 +19574,10 @@
         <v>116</v>
       </c>
       <c r="D353" s="26" t="s">
-        <v>765</v>
+        <v>809</v>
       </c>
       <c r="E353" s="27" t="s">
-        <v>766</v>
+        <v>810</v>
       </c>
       <c r="F353" s="28"/>
       <c r="G353" s="29"/>
@@ -19336,7 +19587,7 @@
         <v>73</v>
       </c>
       <c r="K353" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L353" s="30"/>
       <c r="M353" s="30"/>
@@ -19350,7 +19601,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="25" t="n">
         <v>347</v>
       </c>
@@ -19361,10 +19612,10 @@
         <v>116</v>
       </c>
       <c r="D354" s="26" t="s">
-        <v>767</v>
+        <v>811</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="F354" s="28"/>
       <c r="G354" s="29"/>
@@ -19374,7 +19625,7 @@
         <v>73</v>
       </c>
       <c r="K354" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L354" s="30"/>
       <c r="M354" s="30"/>
@@ -19388,7 +19639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="197.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="25" t="n">
         <v>348</v>
       </c>
@@ -19399,10 +19650,10 @@
         <v>112</v>
       </c>
       <c r="D355" s="26" t="s">
-        <v>769</v>
+        <v>813</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>770</v>
+        <v>814</v>
       </c>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
@@ -19422,7 +19673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="174.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="25" t="n">
         <v>349</v>
       </c>
@@ -19433,10 +19684,10 @@
         <v>112</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>771</v>
+        <v>815</v>
       </c>
       <c r="E356" s="27" t="s">
-        <v>772</v>
+        <v>816</v>
       </c>
       <c r="F356" s="28"/>
       <c r="G356" s="29"/>
@@ -19456,7 +19707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25" t="n">
         <v>350</v>
       </c>
@@ -19467,10 +19718,10 @@
         <v>112</v>
       </c>
       <c r="D357" s="26" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="E357" s="27" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="F357" s="28"/>
       <c r="G357" s="29"/>
@@ -19490,7 +19741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="25" t="n">
         <v>351</v>
       </c>
@@ -19501,10 +19752,10 @@
         <v>112</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="E358" s="27" t="s">
-        <v>776</v>
+        <v>820</v>
       </c>
       <c r="F358" s="28"/>
       <c r="G358" s="29"/>
@@ -19524,7 +19775,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="25" t="n">
         <v>352</v>
       </c>
@@ -19535,10 +19786,10 @@
         <v>49</v>
       </c>
       <c r="D359" s="26" t="s">
-        <v>777</v>
+        <v>821</v>
       </c>
       <c r="E359" s="27" t="s">
-        <v>778</v>
+        <v>822</v>
       </c>
       <c r="F359" s="28"/>
       <c r="G359" s="29"/>
@@ -19558,7 +19809,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="25" t="n">
         <v>353</v>
       </c>
@@ -19569,10 +19820,10 @@
         <v>49</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="E360" s="27" t="s">
-        <v>780</v>
+        <v>824</v>
       </c>
       <c r="F360" s="28"/>
       <c r="G360" s="29"/>
@@ -19592,7 +19843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="25" t="n">
         <v>354</v>
       </c>
@@ -19603,10 +19854,10 @@
         <v>61</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>781</v>
+        <v>825</v>
       </c>
       <c r="E361" s="27" t="s">
-        <v>782</v>
+        <v>826</v>
       </c>
       <c r="F361" s="28"/>
       <c r="G361" s="29"/>
@@ -19626,7 +19877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="25" t="n">
         <v>355</v>
       </c>
@@ -19637,10 +19888,10 @@
         <v>61</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>783</v>
+        <v>827</v>
       </c>
       <c r="E362" s="27" t="s">
-        <v>784</v>
+        <v>828</v>
       </c>
       <c r="F362" s="28"/>
       <c r="G362" s="29"/>
@@ -19660,7 +19911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="191.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="25" t="n">
         <v>356</v>
       </c>
@@ -19671,10 +19922,10 @@
         <v>70</v>
       </c>
       <c r="D363" s="26" t="s">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="E363" s="27" t="s">
-        <v>786</v>
+        <v>830</v>
       </c>
       <c r="F363" s="28"/>
       <c r="G363" s="29"/>
@@ -19684,7 +19935,7 @@
         <v>73</v>
       </c>
       <c r="K363" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L363" s="30"/>
       <c r="M363" s="30"/>
@@ -19698,7 +19949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="25" t="n">
         <v>357</v>
       </c>
@@ -19709,10 +19960,10 @@
         <v>70</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>787</v>
+        <v>831</v>
       </c>
       <c r="E364" s="27" t="s">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="F364" s="28"/>
       <c r="G364" s="29"/>
@@ -19722,7 +19973,7 @@
         <v>73</v>
       </c>
       <c r="K364" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L364" s="30"/>
       <c r="M364" s="30"/>
@@ -19736,7 +19987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="25" t="n">
         <v>358</v>
       </c>
@@ -19747,10 +19998,10 @@
         <v>81</v>
       </c>
       <c r="D365" s="26" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="E365" s="27" t="s">
-        <v>790</v>
+        <v>834</v>
       </c>
       <c r="F365" s="28"/>
       <c r="G365" s="29"/>
@@ -19770,7 +20021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25" t="n">
         <v>359</v>
       </c>
@@ -19781,10 +20032,10 @@
         <v>81</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>791</v>
+        <v>835</v>
       </c>
       <c r="E366" s="27" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="F366" s="28"/>
       <c r="G366" s="29"/>
@@ -19804,7 +20055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="25" t="n">
         <v>360</v>
       </c>
@@ -19815,10 +20066,10 @@
         <v>90</v>
       </c>
       <c r="D367" s="26" t="s">
-        <v>793</v>
+        <v>837</v>
       </c>
       <c r="E367" s="27" t="s">
-        <v>794</v>
+        <v>838</v>
       </c>
       <c r="F367" s="28"/>
       <c r="G367" s="29"/>
@@ -19838,7 +20089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="25" t="n">
         <v>361</v>
       </c>
@@ -19849,10 +20100,10 @@
         <v>90</v>
       </c>
       <c r="D368" s="26" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="E368" s="27" t="s">
-        <v>796</v>
+        <v>840</v>
       </c>
       <c r="F368" s="28"/>
       <c r="G368" s="29"/>
@@ -19872,7 +20123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="25" t="n">
         <v>362</v>
       </c>
@@ -19883,10 +20134,10 @@
         <v>99</v>
       </c>
       <c r="D369" s="26" t="s">
-        <v>797</v>
+        <v>841</v>
       </c>
       <c r="E369" s="27" t="s">
-        <v>798</v>
+        <v>842</v>
       </c>
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
@@ -19906,7 +20157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25" t="n">
         <v>363</v>
       </c>
@@ -19917,10 +20168,10 @@
         <v>99</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>799</v>
+        <v>843</v>
       </c>
       <c r="E370" s="27" t="s">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="F370" s="28"/>
       <c r="G370" s="29"/>
@@ -19940,7 +20191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="191.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="25" t="n">
         <v>364</v>
       </c>
@@ -19951,10 +20202,10 @@
         <v>116</v>
       </c>
       <c r="D371" s="26" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
       <c r="E371" s="27" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
       <c r="F371" s="28"/>
       <c r="G371" s="29"/>
@@ -19964,7 +20215,7 @@
         <v>73</v>
       </c>
       <c r="K371" s="30" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="L371" s="30"/>
       <c r="M371" s="30"/>
@@ -19978,7 +20229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="167.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="25" t="n">
         <v>365</v>
       </c>
@@ -19989,10 +20240,10 @@
         <v>116</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="E372" s="27" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="F372" s="28"/>
       <c r="G372" s="29"/>
@@ -20002,7 +20253,7 @@
         <v>73</v>
       </c>
       <c r="K372" s="30" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="L372" s="30"/>
       <c r="M372" s="30"/>
@@ -20016,7 +20267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="186" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="25" t="n">
         <v>366</v>
       </c>
@@ -20027,10 +20278,10 @@
         <v>112</v>
       </c>
       <c r="D373" s="26" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
       <c r="E373" s="27" t="s">
-        <v>806</v>
+        <v>850</v>
       </c>
       <c r="F373" s="28"/>
       <c r="G373" s="29"/>
@@ -20050,7 +20301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="163" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="25" t="n">
         <v>367</v>
       </c>
@@ -20061,10 +20312,10 @@
         <v>112</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>807</v>
+        <v>851</v>
       </c>
       <c r="E374" s="27" t="s">
-        <v>808</v>
+        <v>852</v>
       </c>
       <c r="F374" s="28"/>
       <c r="G374" s="29"/>
@@ -20084,7 +20335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="114.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="25" t="n">
         <v>368</v>
       </c>
@@ -20095,10 +20346,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="26" t="s">
-        <v>809</v>
+        <v>853</v>
       </c>
       <c r="E375" s="27" t="s">
-        <v>810</v>
+        <v>854</v>
       </c>
       <c r="F375" s="28"/>
       <c r="G375" s="29"/>
@@ -20118,7 +20369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="25" t="n">
         <v>369</v>
       </c>
@@ -20129,10 +20380,10 @@
         <v>61</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>811</v>
+        <v>855</v>
       </c>
       <c r="E376" s="27" t="s">
-        <v>812</v>
+        <v>856</v>
       </c>
       <c r="F376" s="28"/>
       <c r="G376" s="29"/>
@@ -20152,7 +20403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="25" t="n">
         <v>370</v>
       </c>
@@ -20163,15 +20414,23 @@
         <v>70</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="E377" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="F377" s="28"/>
-      <c r="G377" s="29"/>
-      <c r="H377" s="29"/>
-      <c r="I377" s="29"/>
+        <v>858</v>
+      </c>
+      <c r="F377" s="28" t="n">
+        <v>45539</v>
+      </c>
+      <c r="G377" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="H377" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="I377" s="29" t="s">
+        <v>861</v>
+      </c>
       <c r="J377" s="30" t="s">
         <v>133</v>
       </c>
@@ -20188,7 +20447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="25" t="n">
         <v>371</v>
       </c>
@@ -20199,10 +20458,10 @@
         <v>81</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>815</v>
+        <v>862</v>
       </c>
       <c r="E378" s="27" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="F378" s="28"/>
       <c r="G378" s="29"/>
@@ -20222,7 +20481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="25" t="n">
         <v>372</v>
       </c>
@@ -20233,10 +20492,10 @@
         <v>90</v>
       </c>
       <c r="D379" s="26" t="s">
-        <v>817</v>
+        <v>864</v>
       </c>
       <c r="E379" s="27" t="s">
-        <v>818</v>
+        <v>865</v>
       </c>
       <c r="F379" s="28"/>
       <c r="G379" s="29"/>
@@ -20256,7 +20515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="105.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="25" t="n">
         <v>373</v>
       </c>
@@ -20267,10 +20526,10 @@
         <v>99</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>819</v>
+        <v>866</v>
       </c>
       <c r="E380" s="27" t="s">
-        <v>820</v>
+        <v>867</v>
       </c>
       <c r="F380" s="28"/>
       <c r="G380" s="29"/>
@@ -20290,7 +20549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="117" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="57.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25" t="n">
         <v>374</v>
       </c>
@@ -20301,22 +20560,22 @@
         <v>116</v>
       </c>
       <c r="D381" s="26" t="s">
-        <v>821</v>
+        <v>868</v>
       </c>
       <c r="E381" s="27" t="s">
-        <v>822</v>
+        <v>869</v>
       </c>
       <c r="F381" s="28" t="n">
         <v>45508</v>
       </c>
       <c r="G381" s="29" t="s">
-        <v>823</v>
+        <v>870</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>825</v>
+        <v>872</v>
       </c>
       <c r="J381" s="30" t="s">
         <v>133</v>
@@ -20345,10 +20604,10 @@
         <v>112</v>
       </c>
       <c r="D382" s="26" t="s">
-        <v>826</v>
+        <v>873</v>
       </c>
       <c r="E382" s="27" t="s">
-        <v>827</v>
+        <v>874</v>
       </c>
       <c r="F382" s="28"/>
       <c r="G382" s="29"/>
@@ -20379,10 +20638,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="26" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
       <c r="E383" s="27" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
       <c r="F383" s="28"/>
       <c r="G383" s="29"/>
@@ -25055,23 +25314,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T383">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="9">
       <filters blank="1">
         <filter val="SI"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="AGGIORNAMENTO_METADATI"/>
-        <filter val="ELIMINAZIONE"/>
-        <filter val="OSCURAMENTO"/>
-        <filter val="PUBBLICAZIONE_CREAZIONE"/>
-        <filter val="PUBBLICAZIONE_SOSTITUZIONE"/>
+        <filter val="RAD"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -25095,7 +25345,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E235" r:id="rId2" display="Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1&#10;&#10;Viene richiamato il servizio di Aggiornamento Metadati &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata&quot;al fine di testare l'aggiornamento dei metadati (&quot;attiCliniciRegoleAccesso&quot;), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10;&#10;Per la richiesta è necessario:&#10;▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;&#10;▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json &quot;RAD - Caso di Test 4 - Oscuramento&quot; presente al path &quot;https://github.com/ministero-salute/it-fse-accreditamento&quot;.&#10;&#10;Per tutti gli utenti è necessario che il campo &quot;idDoc&quot;da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)."/>
+    <hyperlink ref="E235" r:id="rId2" display="https://github.com"/>
+    <hyperlink ref="E300" r:id="rId3" display="Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.&#10;&#10;Viene richiamato il servizio di pubblicazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents&quot; al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10;&#10;Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:&#10;▪utilizzare il documento &quot;SIGNED_RSA1.pdf&quot; presente al path https://github.com/ministero-salute/it-fse-accreditamento; &#10;▪comporre i metadati contenente la RequestBody utilizzando il json &quot;RSA - Caso di Test 4 - Create&quot; presente al path &quot;https://github.com/ministero-salute/it-fse-accreditamento&quot;.&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -25104,8 +25355,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -25116,7 +25367,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -25139,10 +25390,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>830</v>
+        <v>877</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25150,13 +25401,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>834</v>
+        <v>879</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25164,13 +25415,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>836</v>
+        <v>879</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25178,13 +25429,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>837</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>838</v>
+        <v>879</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25192,13 +25443,13 @@
         <v>81</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>839</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>840</v>
+        <v>879</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25206,13 +25457,13 @@
         <v>90</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>841</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>842</v>
+        <v>879</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25220,13 +25471,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>843</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>844</v>
+        <v>879</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25234,13 +25485,13 @@
         <v>116</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>845</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>846</v>
+        <v>879</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>892</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25248,27 +25499,27 @@
         <v>112</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>847</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>848</v>
+        <v>879</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>849</v>
+        <v>896</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>851</v>
+        <v>879</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25276,13 +25527,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>853</v>
+      <c r="D11" s="36" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25290,13 +25541,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>854</v>
+      <c r="D12" s="36" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25304,13 +25555,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>855</v>
+      <c r="D13" s="37" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25318,13 +25569,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>856</v>
+      <c r="D14" s="36" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25332,13 +25583,13 @@
         <v>90</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>857</v>
+      <c r="D15" s="37" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25346,13 +25597,13 @@
         <v>99</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>858</v>
+      <c r="D16" s="37" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25360,13 +25611,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>859</v>
+      <c r="D17" s="37" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25374,13 +25625,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>899</v>
+      </c>
+      <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>860</v>
+      <c r="D18" s="37" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25388,13 +25639,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C19" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>862</v>
+      <c r="D19" s="36" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25402,13 +25653,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>863</v>
+      <c r="D20" s="36" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25416,13 +25667,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>864</v>
+      <c r="D21" s="37" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25430,13 +25681,13 @@
         <v>81</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>865</v>
+      <c r="D22" s="36" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25444,13 +25695,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>866</v>
+      <c r="D23" s="37" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25458,13 +25709,13 @@
         <v>99</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>867</v>
+      <c r="D24" s="37" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25472,13 +25723,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>868</v>
+      <c r="D25" s="37" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25486,13 +25737,13 @@
         <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>908</v>
+      </c>
+      <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>869</v>
+      <c r="D26" s="37" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25500,13 +25751,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>871</v>
+      <c r="D27" s="36" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25514,13 +25765,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>872</v>
+      <c r="D28" s="36" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25528,13 +25779,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>873</v>
+      <c r="D29" s="38" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25542,13 +25793,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>874</v>
+      <c r="D30" s="36" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25556,13 +25807,13 @@
         <v>90</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>875</v>
+      <c r="D31" s="37" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25570,13 +25821,13 @@
         <v>99</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>876</v>
+      <c r="D32" s="37" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25584,13 +25835,13 @@
         <v>116</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>877</v>
+      <c r="D33" s="37" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25598,13 +25849,13 @@
         <v>112</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>917</v>
+      </c>
+      <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>878</v>
+      <c r="D34" s="37" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25612,12 +25863,12 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C35" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="36" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25626,12 +25877,12 @@
         <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C36" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C36" s="36" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="36" t="n">
         <v>220</v>
       </c>
     </row>
@@ -25640,12 +25891,12 @@
         <v>70</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C37" s="36" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="37" t="n">
         <v>236</v>
       </c>
     </row>
@@ -25654,12 +25905,12 @@
         <v>81</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C38" s="36" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="36" t="n">
         <v>252</v>
       </c>
     </row>
@@ -25668,12 +25919,12 @@
         <v>90</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C39" s="36" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="37" t="n">
         <v>268</v>
       </c>
     </row>
@@ -25682,12 +25933,12 @@
         <v>99</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C40" s="36" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="37" t="n">
         <v>284</v>
       </c>
     </row>
@@ -25696,12 +25947,12 @@
         <v>116</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C41" s="36" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -25710,12 +25961,12 @@
         <v>112</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>926</v>
+      </c>
+      <c r="C42" s="36" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="37" t="n">
         <v>316</v>
       </c>
     </row>
@@ -25724,12 +25975,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25738,12 +25989,12 @@
         <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C44" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="36" t="n">
         <v>223</v>
       </c>
     </row>
@@ -25752,12 +26003,12 @@
         <v>70</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C45" s="36" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="37" t="n">
         <v>239</v>
       </c>
     </row>
@@ -25766,12 +26017,12 @@
         <v>81</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C46" s="36" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="36" t="n">
         <v>255</v>
       </c>
     </row>
@@ -25780,12 +26031,12 @@
         <v>90</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C47" s="36" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="37" t="n">
         <v>271</v>
       </c>
     </row>
@@ -25794,12 +26045,12 @@
         <v>99</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C48" s="36" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="37" t="n">
         <v>287</v>
       </c>
     </row>
@@ -25808,12 +26059,12 @@
         <v>116</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C49" s="36" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="37" t="n">
         <v>303</v>
       </c>
     </row>
@@ -25822,12 +26073,12 @@
         <v>112</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>927</v>
+      </c>
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="37" t="n">
         <v>319</v>
       </c>
     </row>
@@ -26799,7 +27050,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -26811,32 +27062,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>881</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>882</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
@@ -20,7 +20,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -4270,10 +4270,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -4491,7 +4492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4634,6 +4635,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4956,7 +4961,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6030,7 +6035,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7139,7 +7144,7 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -7703,7 +7708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>11</v>
       </c>
@@ -7741,7 +7746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>12</v>
       </c>
@@ -7779,7 +7784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>13</v>
       </c>
@@ -7817,7 +7822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>14</v>
       </c>
@@ -8365,7 +8370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>31</v>
       </c>
@@ -8403,7 +8408,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>32</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>39</v>
       </c>
@@ -8683,7 +8688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="69.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>40</v>
       </c>
@@ -8979,7 +8984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>48</v>
       </c>
@@ -9917,7 +9922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="25" t="n">
         <v>75</v>
       </c>
@@ -9955,7 +9960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="n">
         <v>76</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="25" t="n">
         <v>77</v>
       </c>
@@ -10031,7 +10036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="n">
         <v>78</v>
       </c>
@@ -10069,7 +10074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="n">
         <v>79</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="n">
         <v>80</v>
       </c>
@@ -10145,7 +10150,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="n">
         <v>81</v>
       </c>
@@ -10183,7 +10188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="n">
         <v>82</v>
       </c>
@@ -10221,7 +10226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="n">
         <v>83</v>
       </c>
@@ -10259,7 +10264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="25" t="n">
         <v>84</v>
       </c>
@@ -10297,7 +10302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="25" t="n">
         <v>85</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="25" t="n">
         <v>86</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="n">
         <v>87</v>
       </c>
@@ -10411,7 +10416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="n">
         <v>88</v>
       </c>
@@ -10449,7 +10454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="25" t="n">
         <v>89</v>
       </c>
@@ -10487,7 +10492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="25" t="n">
         <v>90</v>
       </c>
@@ -10525,7 +10530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="n">
         <v>91</v>
       </c>
@@ -10563,7 +10568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="25" t="n">
         <v>92</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="25" t="n">
         <v>93</v>
       </c>
@@ -12441,7 +12446,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="25" t="n">
         <v>147</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25" t="n">
         <v>148</v>
       </c>
@@ -12517,7 +12522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="n">
         <v>149</v>
       </c>
@@ -12555,7 +12560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25" t="n">
         <v>150</v>
       </c>
@@ -12571,7 +12576,7 @@
       <c r="E157" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="F157" s="28"/>
+      <c r="F157" s="36"/>
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
@@ -12593,7 +12598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="n">
         <v>151</v>
       </c>
@@ -12631,7 +12636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25" t="n">
         <v>152</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="n">
         <v>153</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25" t="n">
         <v>154</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="25" t="n">
         <v>155</v>
       </c>
@@ -12783,7 +12788,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="25" t="n">
         <v>156</v>
       </c>
@@ -12821,7 +12826,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="n">
         <v>157</v>
       </c>
@@ -12859,7 +12864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25" t="n">
         <v>158</v>
       </c>
@@ -12897,7 +12902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="n">
         <v>159</v>
       </c>
@@ -12935,7 +12940,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="25" t="n">
         <v>160</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="n">
         <v>161</v>
       </c>
@@ -13011,7 +13016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="25" t="n">
         <v>162</v>
       </c>
@@ -13049,7 +13054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="25" t="n">
         <v>163</v>
       </c>
@@ -13087,7 +13092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="25" t="n">
         <v>164</v>
       </c>
@@ -13125,7 +13130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="25" t="n">
         <v>165</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="25" t="n">
         <v>166</v>
       </c>
@@ -13201,7 +13206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="n">
         <v>167</v>
       </c>
@@ -13239,7 +13244,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="n">
         <v>168</v>
       </c>
@@ -13277,7 +13282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="25" t="n">
         <v>169</v>
       </c>
@@ -15168,7 +15173,7 @@
         <v>512</v>
       </c>
       <c r="F231" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G231" s="29" t="s">
         <v>513</v>
@@ -15195,7 +15200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="192.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="191.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="25" t="n">
         <v>225</v>
       </c>
@@ -15212,7 +15217,7 @@
         <v>517</v>
       </c>
       <c r="F232" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G232" s="29" t="s">
         <v>518</v>
@@ -15239,7 +15244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="n">
         <v>226</v>
       </c>
@@ -15256,7 +15261,7 @@
         <v>522</v>
       </c>
       <c r="F233" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G233" s="29" t="s">
         <v>523</v>
@@ -15283,7 +15288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="25" t="n">
         <v>227</v>
       </c>
@@ -15300,7 +15305,7 @@
         <v>527</v>
       </c>
       <c r="F234" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G234" s="29" t="s">
         <v>528</v>
@@ -15327,7 +15332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
         <v>228</v>
       </c>
@@ -15344,7 +15349,7 @@
         <v>532</v>
       </c>
       <c r="F235" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G235" s="29" t="s">
         <v>533</v>
@@ -15371,7 +15376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="135.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25" t="n">
         <v>229</v>
       </c>
@@ -15388,7 +15393,7 @@
         <v>537</v>
       </c>
       <c r="F236" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G236" s="29" t="s">
         <v>538</v>
@@ -15413,7 +15418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="25" t="n">
         <v>230</v>
       </c>
@@ -15451,7 +15456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="25" t="n">
         <v>231</v>
       </c>
@@ -15468,7 +15473,7 @@
         <v>544</v>
       </c>
       <c r="F238" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G238" s="29" t="s">
         <v>545</v>
@@ -15495,7 +15500,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="25" t="n">
         <v>232</v>
       </c>
@@ -15533,7 +15538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="n">
         <v>233</v>
       </c>
@@ -15571,7 +15576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="25" t="n">
         <v>234</v>
       </c>
@@ -15609,7 +15614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="25" t="n">
         <v>235</v>
       </c>
@@ -15647,7 +15652,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="25" t="n">
         <v>236</v>
       </c>
@@ -15664,7 +15669,7 @@
         <v>473</v>
       </c>
       <c r="F243" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G243" s="29" t="s">
         <v>558</v>
@@ -15689,7 +15694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="n">
         <v>237</v>
       </c>
@@ -15706,7 +15711,7 @@
         <v>561</v>
       </c>
       <c r="F244" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G244" s="29" t="s">
         <v>562</v>
@@ -15731,7 +15736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="25" t="n">
         <v>238</v>
       </c>
@@ -15748,7 +15753,7 @@
         <v>565</v>
       </c>
       <c r="F245" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G245" s="29" t="s">
         <v>566</v>
@@ -15790,7 +15795,7 @@
         <v>569</v>
       </c>
       <c r="F246" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G246" s="29" t="s">
         <v>570</v>
@@ -17447,7 +17452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="124.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="131.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="n">
         <v>288</v>
       </c>
@@ -17464,7 +17469,7 @@
         <v>666</v>
       </c>
       <c r="F295" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G295" s="29" t="s">
         <v>667</v>
@@ -17491,7 +17496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="191.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25" t="n">
         <v>289</v>
       </c>
@@ -17508,7 +17513,7 @@
         <v>671</v>
       </c>
       <c r="F296" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G296" s="29" t="s">
         <v>672</v>
@@ -17535,7 +17540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="178.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="25" t="n">
         <v>290</v>
       </c>
@@ -17552,7 +17557,7 @@
         <v>676</v>
       </c>
       <c r="F297" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G297" s="29" t="s">
         <v>677</v>
@@ -17579,7 +17584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25" t="n">
         <v>291</v>
       </c>
@@ -17596,7 +17601,7 @@
         <v>681</v>
       </c>
       <c r="F298" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G298" s="29" t="s">
         <v>682</v>
@@ -17623,7 +17628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="180.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="n">
         <v>292</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>686</v>
       </c>
       <c r="F299" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G299" s="29" t="s">
         <v>687</v>
@@ -17667,7 +17672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="25" t="n">
         <v>293</v>
       </c>
@@ -17684,7 +17689,7 @@
         <v>691</v>
       </c>
       <c r="F300" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G300" s="29" t="s">
         <v>692</v>
@@ -17709,7 +17714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="25" t="n">
         <v>294</v>
       </c>
@@ -17747,7 +17752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="25" t="n">
         <v>295</v>
       </c>
@@ -17764,7 +17769,7 @@
         <v>697</v>
       </c>
       <c r="F302" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G302" s="29" t="s">
         <v>698</v>
@@ -17791,7 +17796,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="25" t="n">
         <v>296</v>
       </c>
@@ -17829,7 +17834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="136.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="25" t="n">
         <v>297</v>
       </c>
@@ -17867,7 +17872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="147.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="n">
         <v>298</v>
       </c>
@@ -17905,7 +17910,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="25" t="n">
         <v>299</v>
       </c>
@@ -17943,7 +17948,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="91.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="25" t="n">
         <v>300</v>
       </c>
@@ -17960,7 +17965,7 @@
         <v>473</v>
       </c>
       <c r="F307" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G307" s="29" t="s">
         <v>710</v>
@@ -17985,7 +17990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="25" t="n">
         <v>301</v>
       </c>
@@ -18002,7 +18007,7 @@
         <v>713</v>
       </c>
       <c r="F308" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G308" s="29" t="s">
         <v>714</v>
@@ -18027,7 +18032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="25" t="n">
         <v>302</v>
       </c>
@@ -18044,7 +18049,7 @@
         <v>717</v>
       </c>
       <c r="F309" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G309" s="29" t="s">
         <v>718</v>
@@ -18069,7 +18074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="25" t="n">
         <v>303</v>
       </c>
@@ -18086,7 +18091,7 @@
         <v>721</v>
       </c>
       <c r="F310" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G310" s="29" t="s">
         <v>722</v>
@@ -18927,7 +18932,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="192.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="25" t="n">
         <v>328</v>
       </c>
@@ -18965,7 +18970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="n">
         <v>329</v>
       </c>
@@ -19003,7 +19008,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="25" t="n">
         <v>330</v>
       </c>
@@ -19041,7 +19046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="25" t="n">
         <v>331</v>
       </c>
@@ -19487,7 +19492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="192.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="192.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="25" t="n">
         <v>344</v>
       </c>
@@ -19525,7 +19530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="25" t="n">
         <v>345</v>
       </c>
@@ -19563,7 +19568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="n">
         <v>346</v>
       </c>
@@ -19601,7 +19606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="25" t="n">
         <v>347</v>
       </c>
@@ -19911,7 +19916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="25" t="n">
         <v>356</v>
       </c>
@@ -19949,7 +19954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="25" t="n">
         <v>357</v>
       </c>
@@ -20191,7 +20196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="180.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="25" t="n">
         <v>364</v>
       </c>
@@ -20229,7 +20234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="158.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="158.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="25" t="n">
         <v>365</v>
       </c>
@@ -20403,7 +20408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="25" t="n">
         <v>370</v>
       </c>
@@ -20420,7 +20425,7 @@
         <v>858</v>
       </c>
       <c r="F377" s="28" t="n">
-        <v>45539</v>
+        <v>45391</v>
       </c>
       <c r="G377" s="29" t="s">
         <v>859</v>
@@ -20549,7 +20554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="57.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="124.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25" t="n">
         <v>374</v>
       </c>
@@ -20566,7 +20571,7 @@
         <v>869</v>
       </c>
       <c r="F381" s="28" t="n">
-        <v>45508</v>
+        <v>45390</v>
       </c>
       <c r="G381" s="29" t="s">
         <v>870</v>
@@ -25314,14 +25319,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T383">
-    <filterColumn colId="9">
-      <filters blank="1">
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
+        <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <dateGroupItem year="2024" month="04" day="09" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -25345,7 +25351,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E235" r:id="rId2" display="https://github.com"/>
+    <hyperlink ref="E235" r:id="rId2" display="Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1&#10;&#10;Viene richiamato il servizio di Aggiornamento Metadati &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata&quot;al fine di testare l'aggiornamento dei metadati (&quot;attiCliniciRegoleAccesso&quot;), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10;&#10;Per la richiesta è necessario:&#10;▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;&#10;▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json &quot;RAD - Caso di Test 4 - Oscuramento&quot; presente al path &quot;https://github.com/ministero-salute/it-fse-accreditamento&quot;.&#10;&#10;Per tutti gli utenti è necessario che il campo &quot;idDoc&quot;da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)."/>
     <hyperlink ref="E300" r:id="rId3" display="Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.&#10;&#10;Viene richiamato il servizio di pubblicazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents&quot; al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10;&#10;Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:&#10;▪utilizzare il documento &quot;SIGNED_RSA1.pdf&quot; presente al path https://github.com/ministero-salute/it-fse-accreditamento; &#10;▪comporre i metadati contenente la RequestBody utilizzando il json &quot;RSA - Caso di Test 4 - Create&quot; presente al path &quot;https://github.com/ministero-salute/it-fse-accreditamento&quot;.&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25367,7 +25373,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -25403,10 +25409,10 @@
       <c r="B2" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>881</v>
       </c>
     </row>
@@ -25417,10 +25423,10 @@
       <c r="B3" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>883</v>
       </c>
     </row>
@@ -25431,10 +25437,10 @@
       <c r="B4" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>884</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>885</v>
       </c>
     </row>
@@ -25445,10 +25451,10 @@
       <c r="B5" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>886</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>887</v>
       </c>
     </row>
@@ -25459,10 +25465,10 @@
       <c r="B6" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>889</v>
       </c>
     </row>
@@ -25473,10 +25479,10 @@
       <c r="B7" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>891</v>
       </c>
     </row>
@@ -25487,10 +25493,10 @@
       <c r="B8" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>893</v>
       </c>
     </row>
@@ -25501,10 +25507,10 @@
       <c r="B9" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>895</v>
       </c>
     </row>
@@ -25515,10 +25521,10 @@
       <c r="B10" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>897</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>898</v>
       </c>
     </row>
@@ -25529,10 +25535,10 @@
       <c r="B11" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C11" s="36" t="n">
+      <c r="C11" s="37" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>900</v>
       </c>
     </row>
@@ -25543,10 +25549,10 @@
       <c r="B12" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C12" s="36" t="n">
+      <c r="C12" s="37" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>901</v>
       </c>
     </row>
@@ -25557,10 +25563,10 @@
       <c r="B13" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="37" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>902</v>
       </c>
     </row>
@@ -25571,10 +25577,10 @@
       <c r="B14" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C14" s="36" t="n">
+      <c r="C14" s="37" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>903</v>
       </c>
     </row>
@@ -25585,10 +25591,10 @@
       <c r="B15" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="37" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>904</v>
       </c>
     </row>
@@ -25599,10 +25605,10 @@
       <c r="B16" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C16" s="36" t="n">
+      <c r="C16" s="37" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="38" t="s">
         <v>905</v>
       </c>
     </row>
@@ -25613,10 +25619,10 @@
       <c r="B17" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="37" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>906</v>
       </c>
     </row>
@@ -25627,10 +25633,10 @@
       <c r="B18" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C18" s="36" t="n">
+      <c r="C18" s="37" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="38" t="s">
         <v>907</v>
       </c>
     </row>
@@ -25641,10 +25647,10 @@
       <c r="B19" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="37" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>909</v>
       </c>
     </row>
@@ -25655,10 +25661,10 @@
       <c r="B20" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="37" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>910</v>
       </c>
     </row>
@@ -25669,10 +25675,10 @@
       <c r="B21" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="37" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="38" t="s">
         <v>911</v>
       </c>
     </row>
@@ -25683,10 +25689,10 @@
       <c r="B22" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C22" s="36" t="n">
+      <c r="C22" s="37" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>912</v>
       </c>
     </row>
@@ -25697,10 +25703,10 @@
       <c r="B23" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C23" s="36" t="n">
+      <c r="C23" s="37" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="38" t="s">
         <v>913</v>
       </c>
     </row>
@@ -25711,10 +25717,10 @@
       <c r="B24" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C24" s="36" t="n">
+      <c r="C24" s="37" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="38" t="s">
         <v>914</v>
       </c>
     </row>
@@ -25725,10 +25731,10 @@
       <c r="B25" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C25" s="36" t="n">
+      <c r="C25" s="37" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="38" t="s">
         <v>915</v>
       </c>
     </row>
@@ -25739,10 +25745,10 @@
       <c r="B26" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C26" s="36" t="n">
+      <c r="C26" s="37" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>916</v>
       </c>
     </row>
@@ -25753,10 +25759,10 @@
       <c r="B27" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C27" s="36" t="n">
+      <c r="C27" s="37" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>918</v>
       </c>
     </row>
@@ -25767,10 +25773,10 @@
       <c r="B28" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C28" s="36" t="n">
+      <c r="C28" s="37" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="37" t="s">
         <v>919</v>
       </c>
     </row>
@@ -25781,10 +25787,10 @@
       <c r="B29" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C29" s="36" t="n">
+      <c r="C29" s="37" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="39" t="s">
         <v>920</v>
       </c>
     </row>
@@ -25795,10 +25801,10 @@
       <c r="B30" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C30" s="36" t="n">
+      <c r="C30" s="37" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="37" t="s">
         <v>921</v>
       </c>
     </row>
@@ -25809,10 +25815,10 @@
       <c r="B31" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C31" s="36" t="n">
+      <c r="C31" s="37" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="38" t="s">
         <v>922</v>
       </c>
     </row>
@@ -25823,10 +25829,10 @@
       <c r="B32" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C32" s="36" t="n">
+      <c r="C32" s="37" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="38" t="s">
         <v>923</v>
       </c>
     </row>
@@ -25837,10 +25843,10 @@
       <c r="B33" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C33" s="36" t="n">
+      <c r="C33" s="37" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="38" t="s">
         <v>924</v>
       </c>
     </row>
@@ -25851,10 +25857,10 @@
       <c r="B34" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C34" s="36" t="n">
+      <c r="C34" s="37" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="38" t="s">
         <v>925</v>
       </c>
     </row>
@@ -25865,10 +25871,10 @@
       <c r="B35" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C35" s="36" t="n">
+      <c r="C35" s="37" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="37" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25879,10 +25885,10 @@
       <c r="B36" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C36" s="36" t="n">
+      <c r="C36" s="37" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="36" t="n">
+      <c r="D36" s="37" t="n">
         <v>220</v>
       </c>
     </row>
@@ -25893,10 +25899,10 @@
       <c r="B37" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C37" s="36" t="n">
+      <c r="C37" s="37" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="37" t="n">
+      <c r="D37" s="38" t="n">
         <v>236</v>
       </c>
     </row>
@@ -25907,10 +25913,10 @@
       <c r="B38" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C38" s="36" t="n">
+      <c r="C38" s="37" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="36" t="n">
+      <c r="D38" s="37" t="n">
         <v>252</v>
       </c>
     </row>
@@ -25921,10 +25927,10 @@
       <c r="B39" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C39" s="36" t="n">
+      <c r="C39" s="37" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="37" t="n">
+      <c r="D39" s="38" t="n">
         <v>268</v>
       </c>
     </row>
@@ -25935,10 +25941,10 @@
       <c r="B40" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C40" s="36" t="n">
+      <c r="C40" s="37" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="37" t="n">
+      <c r="D40" s="38" t="n">
         <v>284</v>
       </c>
     </row>
@@ -25949,10 +25955,10 @@
       <c r="B41" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C41" s="36" t="n">
+      <c r="C41" s="37" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="37" t="n">
+      <c r="D41" s="38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -25963,10 +25969,10 @@
       <c r="B42" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C42" s="36" t="n">
+      <c r="C42" s="37" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="37" t="n">
+      <c r="D42" s="38" t="n">
         <v>316</v>
       </c>
     </row>
@@ -25977,10 +25983,10 @@
       <c r="B43" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C43" s="36" t="n">
+      <c r="C43" s="37" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="37" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25991,10 +25997,10 @@
       <c r="B44" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C44" s="36" t="n">
+      <c r="C44" s="37" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="37" t="n">
         <v>223</v>
       </c>
     </row>
@@ -26005,10 +26011,10 @@
       <c r="B45" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C45" s="36" t="n">
+      <c r="C45" s="37" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="38" t="n">
         <v>239</v>
       </c>
     </row>
@@ -26019,10 +26025,10 @@
       <c r="B46" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C46" s="36" t="n">
+      <c r="C46" s="37" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="36" t="n">
+      <c r="D46" s="37" t="n">
         <v>255</v>
       </c>
     </row>
@@ -26033,10 +26039,10 @@
       <c r="B47" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C47" s="36" t="n">
+      <c r="C47" s="37" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="37" t="n">
+      <c r="D47" s="38" t="n">
         <v>271</v>
       </c>
     </row>
@@ -26047,10 +26053,10 @@
       <c r="B48" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C48" s="36" t="n">
+      <c r="C48" s="37" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="38" t="n">
         <v>287</v>
       </c>
     </row>
@@ -26061,10 +26067,10 @@
       <c r="B49" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C49" s="36" t="n">
+      <c r="C49" s="37" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="38" t="n">
         <v>303</v>
       </c>
     </row>
@@ -26075,10 +26081,10 @@
       <c r="B50" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C50" s="36" t="n">
+      <c r="C50" s="37" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="38" t="n">
         <v>319</v>
       </c>
     </row>
@@ -27050,7 +27056,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -27062,32 +27068,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>928</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>929</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCTOLIBSRLXX/Doctolib/Vettore/26/report-checklist.xlsx
@@ -4961,7 +4961,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6035,7 +6035,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7144,12 +7144,12 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B371" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D232" activeCellId="0" sqref="D232"/>
+      <selection pane="bottomLeft" activeCell="A371" activeCellId="0" sqref="A371"/>
+      <selection pane="bottomRight" activeCell="F296" activeCellId="0" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15332,7 +15332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
         <v>228</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="131.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="n">
         <v>288</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="191.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="191.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25" t="n">
         <v>289</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>671</v>
       </c>
       <c r="F296" s="28" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="G296" s="29" t="s">
         <v>672</v>
@@ -17540,7 +17540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="178.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="25" t="n">
         <v>290</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="107.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="107.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25" t="n">
         <v>291</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="180.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="180.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="n">
         <v>292</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>686</v>
       </c>
       <c r="F299" s="28" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="G299" s="29" t="s">
         <v>687</v>
@@ -20554,7 +20554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="124.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="124.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25" t="n">
         <v>374</v>
       </c>
@@ -25323,11 +25323,6 @@
       <filters>
         <filter val="RAD"/>
         <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <dateGroupItem year="2024" month="04" day="09" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -25373,7 +25368,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -27056,7 +27051,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
